--- a/TS Jatai Working/Padam Input Templates/TS 7.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 7.2 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC19BF1-1AD4-497A-9FE7-B0FE779817EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB872E44-0985-47C7-AFE1-037EFC459106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6068" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6071" uniqueCount="1181">
   <si>
     <t>Passage</t>
   </si>
@@ -3552,9 +3552,6 @@
     <t>anvanu</t>
   </si>
   <si>
-    <t>NE+NRE</t>
-  </si>
-  <si>
     <t>LE</t>
   </si>
   <si>
@@ -3568,6 +3565,12 @@
   </si>
   <si>
     <t>anu cChandaH</t>
+  </si>
+  <si>
+    <t>prA~g. yAnti (swara bakthi??)</t>
+  </si>
+  <si>
+    <t>P[s]</t>
   </si>
 </sst>
 </file>
@@ -3723,7 +3726,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3751,6 +3754,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3782,7 +3791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3968,6 +3977,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3983,7 +3995,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4266,12 +4281,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V2728"/>
+  <dimension ref="A1:V2331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2315" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N2331" sqref="N2331"/>
+      <selection pane="bottomLeft" activeCell="S2331" sqref="S2331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -10274,7 +10289,7 @@
         <f t="shared" si="8"/>
         <v>146</v>
       </c>
-      <c r="N147" s="46" t="s">
+      <c r="N147" s="70" t="s">
         <v>212</v>
       </c>
       <c r="O147" s="7"/>
@@ -10287,7 +10302,11 @@
       <c r="V147" s="46"/>
     </row>
     <row r="148" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A148" s="62"/>
+      <c r="A148" s="57" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B148" s="57"/>
+      <c r="C148" s="57"/>
       <c r="D148" s="24"/>
       <c r="H148" s="53" t="s">
         <v>79</v>
@@ -10310,7 +10329,7 @@
         <f t="shared" si="8"/>
         <v>147</v>
       </c>
-      <c r="N148" s="46" t="s">
+      <c r="N148" s="70" t="s">
         <v>213</v>
       </c>
       <c r="O148" s="7"/>
@@ -22468,7 +22487,7 @@
       <c r="S499" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="T499" s="8" t="s">
+      <c r="T499" s="69" t="s">
         <v>78</v>
       </c>
       <c r="U499" s="8"/>
@@ -22505,8 +22524,12 @@
       <c r="P500" s="8"/>
       <c r="Q500" s="8"/>
       <c r="R500" s="8"/>
-      <c r="S500" s="8"/>
-      <c r="T500" s="8"/>
+      <c r="S500" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="T500" s="69" t="s">
+        <v>1180</v>
+      </c>
       <c r="U500" s="8"/>
       <c r="V500" s="46"/>
     </row>
@@ -27593,7 +27616,7 @@
         <v>61</v>
       </c>
       <c r="N648" s="47" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="O648" s="8" t="s">
         <v>70</v>
@@ -41264,36 +41287,36 @@
       </c>
     </row>
     <row r="1068" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I1068" s="63" t="s">
+      <c r="I1068" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="J1068" s="64">
+      <c r="J1068" s="52">
         <v>23</v>
       </c>
-      <c r="K1068" s="65">
+      <c r="K1068" s="6">
         <f t="shared" si="48"/>
         <v>1067</v>
       </c>
-      <c r="L1068" s="65">
+      <c r="L1068" s="6">
         <v>1</v>
       </c>
-      <c r="M1068" s="65">
+      <c r="M1068" s="6">
         <f t="shared" si="50"/>
         <v>51</v>
       </c>
-      <c r="N1068" s="66" t="s">
+      <c r="N1068" s="46" t="s">
         <v>1053</v>
       </c>
-      <c r="O1068" s="67" t="s">
+      <c r="O1068" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="P1068" s="67"/>
-      <c r="Q1068" s="67"/>
-      <c r="R1068" s="67"/>
-      <c r="S1068" s="67"/>
-      <c r="T1068" s="67"/>
-      <c r="U1068" s="67"/>
-      <c r="V1068" s="66" t="s">
+      <c r="P1068" s="8"/>
+      <c r="Q1068" s="8"/>
+      <c r="R1068" s="8"/>
+      <c r="S1068" s="8"/>
+      <c r="T1068" s="8"/>
+      <c r="U1068" s="8"/>
+      <c r="V1068" s="46" t="s">
         <v>546</v>
       </c>
     </row>
@@ -42476,7 +42499,6 @@
       <c r="P1104" s="8"/>
       <c r="Q1104" s="8"/>
       <c r="R1104" s="8"/>
-      <c r="S1104" s="8"/>
       <c r="T1104" s="8"/>
       <c r="U1104" s="8"/>
       <c r="V1104" s="46"/>
@@ -42508,8 +42530,12 @@
       <c r="P1105" s="8"/>
       <c r="Q1105" s="8"/>
       <c r="R1105" s="8"/>
-      <c r="S1105" s="8"/>
-      <c r="T1105" s="8"/>
+      <c r="S1105" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1105" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="U1105" s="8"/>
       <c r="V1105" s="46"/>
     </row>
@@ -42902,7 +42928,7 @@
         <f t="shared" si="53"/>
         <v>100</v>
       </c>
-      <c r="N1117" s="66" t="s">
+      <c r="N1117" s="46" t="s">
         <v>572</v>
       </c>
       <c r="O1117" s="7"/>
@@ -44491,35 +44517,35 @@
     </row>
     <row r="1167" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1167" s="31"/>
-      <c r="I1167" s="49" t="s">
+      <c r="I1167" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="J1167" s="52">
+      <c r="J1167" s="65">
         <v>24</v>
       </c>
-      <c r="K1167" s="6">
+      <c r="K1167" s="66">
         <f t="shared" si="54"/>
         <v>1166</v>
       </c>
-      <c r="L1167" s="6">
+      <c r="L1167" s="66">
         <f t="shared" si="55"/>
         <v>50</v>
       </c>
-      <c r="M1167" s="6">
+      <c r="M1167" s="66">
         <f t="shared" si="56"/>
         <v>150</v>
       </c>
-      <c r="N1167" s="46" t="s">
+      <c r="N1167" s="67" t="s">
         <v>590</v>
       </c>
-      <c r="O1167" s="8"/>
-      <c r="P1167" s="8"/>
-      <c r="Q1167" s="8"/>
-      <c r="R1167" s="8"/>
-      <c r="S1167" s="8"/>
-      <c r="T1167" s="8"/>
-      <c r="U1167" s="8"/>
-      <c r="V1167" s="46"/>
+      <c r="O1167" s="68"/>
+      <c r="P1167" s="68"/>
+      <c r="Q1167" s="68"/>
+      <c r="R1167" s="68"/>
+      <c r="S1167" s="68"/>
+      <c r="T1167" s="68"/>
+      <c r="U1167" s="68"/>
+      <c r="V1167" s="67"/>
     </row>
     <row r="1168" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1168" s="49" t="s">
@@ -51396,7 +51422,7 @@
     </row>
     <row r="1381" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1381" s="62" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C1381" s="41"/>
       <c r="H1381" s="34"/>
@@ -51418,7 +51444,7 @@
         <f t="shared" si="65"/>
         <v>89</v>
       </c>
-      <c r="N1381" s="68" t="s">
+      <c r="N1381" s="63" t="s">
         <v>658</v>
       </c>
       <c r="O1381" s="7"/>
@@ -51454,7 +51480,7 @@
         <f t="shared" si="65"/>
         <v>90</v>
       </c>
-      <c r="N1382" s="68" t="s">
+      <c r="N1382" s="63" t="s">
         <v>984</v>
       </c>
       <c r="O1382" s="8" t="s">
@@ -53872,7 +53898,7 @@
     </row>
     <row r="1456" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1456" s="62" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C1456" s="41"/>
       <c r="I1456" s="49" t="s">
@@ -53928,7 +53954,7 @@
         <f t="shared" si="68"/>
         <v>165</v>
       </c>
-      <c r="N1457" s="68" t="s">
+      <c r="N1457" s="63" t="s">
         <v>658</v>
       </c>
       <c r="O1457" s="7"/>
@@ -53965,7 +53991,7 @@
         <f t="shared" si="68"/>
         <v>166</v>
       </c>
-      <c r="N1458" s="68" t="s">
+      <c r="N1458" s="63" t="s">
         <v>984</v>
       </c>
       <c r="O1458" s="8" t="s">
@@ -53976,9 +54002,7 @@
       <c r="R1458" s="8"/>
       <c r="S1458" s="8"/>
       <c r="T1458" s="8"/>
-      <c r="U1458" s="8" t="s">
-        <v>1174</v>
-      </c>
+      <c r="U1458" s="8"/>
       <c r="V1458" s="46"/>
     </row>
     <row r="1459" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55908,7 +55932,7 @@
     </row>
     <row r="1517" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1517" s="62" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C1517" s="41"/>
       <c r="I1517" s="49" t="s">
@@ -55929,7 +55953,7 @@
         <f t="shared" si="71"/>
         <v>225</v>
       </c>
-      <c r="N1517" s="68" t="s">
+      <c r="N1517" s="63" t="s">
         <v>658</v>
       </c>
       <c r="O1517" s="7"/>
@@ -55964,7 +55988,7 @@
         <f t="shared" si="71"/>
         <v>226</v>
       </c>
-      <c r="N1518" s="68" t="s">
+      <c r="N1518" s="63" t="s">
         <v>984</v>
       </c>
       <c r="O1518" s="8" t="s">
@@ -55975,9 +55999,7 @@
       <c r="R1518" s="8"/>
       <c r="S1518" s="8"/>
       <c r="T1518" s="8"/>
-      <c r="U1518" s="8" t="s">
-        <v>1174</v>
-      </c>
+      <c r="U1518" s="69"/>
       <c r="V1518" s="46"/>
     </row>
     <row r="1519" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62185,7 +62207,7 @@
         <f t="shared" si="83"/>
         <v>100</v>
       </c>
-      <c r="N1743" s="66" t="s">
+      <c r="N1743" s="46" t="s">
         <v>135</v>
       </c>
       <c r="V1743" s="46"/>
@@ -66756,10 +66778,10 @@
         <v>809</v>
       </c>
       <c r="S1922" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="T1922" s="1" t="s">
         <v>1175</v>
-      </c>
-      <c r="T1922" s="1" t="s">
-        <v>1176</v>
       </c>
       <c r="V1922" s="46"/>
     </row>
@@ -77128,1991 +77150,6 @@
       <c r="V2331" s="46" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="2332" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2332" s="49"/>
-      <c r="N2332" s="46"/>
-      <c r="V2332" s="46"/>
-    </row>
-    <row r="2333" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2333" s="49"/>
-      <c r="N2333" s="46"/>
-      <c r="V2333" s="46"/>
-    </row>
-    <row r="2334" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2334" s="49"/>
-      <c r="N2334" s="46"/>
-      <c r="V2334" s="46"/>
-    </row>
-    <row r="2335" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2335" s="49"/>
-      <c r="N2335" s="46"/>
-      <c r="V2335" s="46"/>
-    </row>
-    <row r="2336" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2336" s="49"/>
-      <c r="N2336" s="46"/>
-      <c r="V2336" s="46"/>
-    </row>
-    <row r="2337" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2337" s="49"/>
-      <c r="N2337" s="46"/>
-      <c r="V2337" s="46"/>
-    </row>
-    <row r="2338" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2338" s="49"/>
-      <c r="N2338" s="46"/>
-      <c r="V2338" s="46"/>
-    </row>
-    <row r="2339" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2339" s="49"/>
-      <c r="N2339" s="46"/>
-      <c r="V2339" s="46"/>
-    </row>
-    <row r="2340" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2340" s="49"/>
-      <c r="N2340" s="46"/>
-      <c r="V2340" s="46"/>
-    </row>
-    <row r="2341" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2341" s="49"/>
-      <c r="N2341" s="46"/>
-      <c r="V2341" s="46"/>
-    </row>
-    <row r="2342" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2342" s="49"/>
-      <c r="N2342" s="46"/>
-      <c r="V2342" s="46"/>
-    </row>
-    <row r="2343" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2343" s="49"/>
-      <c r="N2343" s="46"/>
-      <c r="V2343" s="46"/>
-    </row>
-    <row r="2344" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2344" s="49"/>
-      <c r="N2344" s="46"/>
-      <c r="V2344" s="46"/>
-    </row>
-    <row r="2345" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2345" s="49"/>
-      <c r="N2345" s="46"/>
-      <c r="V2345" s="46"/>
-    </row>
-    <row r="2346" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2346" s="49"/>
-      <c r="N2346" s="46"/>
-      <c r="V2346" s="46"/>
-    </row>
-    <row r="2347" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2347" s="49"/>
-      <c r="N2347" s="46"/>
-      <c r="V2347" s="46"/>
-    </row>
-    <row r="2348" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2348" s="49"/>
-      <c r="N2348" s="46"/>
-      <c r="V2348" s="46"/>
-    </row>
-    <row r="2349" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2349" s="49"/>
-      <c r="N2349" s="46"/>
-      <c r="V2349" s="46"/>
-    </row>
-    <row r="2350" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2350" s="49"/>
-      <c r="N2350" s="46"/>
-      <c r="V2350" s="46"/>
-    </row>
-    <row r="2351" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2351" s="49"/>
-      <c r="N2351" s="46"/>
-      <c r="V2351" s="46"/>
-    </row>
-    <row r="2352" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2352" s="49"/>
-      <c r="N2352" s="46"/>
-      <c r="V2352" s="46"/>
-    </row>
-    <row r="2353" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2353" s="49"/>
-      <c r="N2353" s="46"/>
-      <c r="V2353" s="46"/>
-    </row>
-    <row r="2354" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2354" s="49"/>
-      <c r="N2354" s="46"/>
-      <c r="V2354" s="46"/>
-    </row>
-    <row r="2355" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2355" s="49"/>
-      <c r="N2355" s="46"/>
-      <c r="V2355" s="46"/>
-    </row>
-    <row r="2356" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2356" s="49"/>
-      <c r="N2356" s="46"/>
-      <c r="V2356" s="46"/>
-    </row>
-    <row r="2357" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2357" s="49"/>
-      <c r="N2357" s="46"/>
-      <c r="V2357" s="46"/>
-    </row>
-    <row r="2358" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2358" s="49"/>
-      <c r="N2358" s="46"/>
-      <c r="V2358" s="46"/>
-    </row>
-    <row r="2359" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2359" s="49"/>
-      <c r="N2359" s="46"/>
-      <c r="V2359" s="46"/>
-    </row>
-    <row r="2360" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2360" s="49"/>
-      <c r="N2360" s="46"/>
-      <c r="V2360" s="46"/>
-    </row>
-    <row r="2361" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2361" s="49"/>
-      <c r="N2361" s="46"/>
-      <c r="V2361" s="46"/>
-    </row>
-    <row r="2362" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2362" s="49"/>
-      <c r="N2362" s="46"/>
-      <c r="V2362" s="46"/>
-    </row>
-    <row r="2363" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2363" s="49"/>
-      <c r="N2363" s="46"/>
-      <c r="V2363" s="46"/>
-    </row>
-    <row r="2364" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2364" s="49"/>
-      <c r="N2364" s="46"/>
-      <c r="V2364" s="46"/>
-    </row>
-    <row r="2365" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2365" s="49"/>
-      <c r="N2365" s="46"/>
-      <c r="V2365" s="46"/>
-    </row>
-    <row r="2366" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2366" s="49"/>
-      <c r="N2366" s="46"/>
-      <c r="V2366" s="46"/>
-    </row>
-    <row r="2367" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2367" s="49"/>
-      <c r="N2367" s="46"/>
-      <c r="V2367" s="46"/>
-    </row>
-    <row r="2368" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2368" s="49"/>
-      <c r="N2368" s="46"/>
-      <c r="V2368" s="46"/>
-    </row>
-    <row r="2369" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2369" s="49"/>
-      <c r="N2369" s="46"/>
-      <c r="V2369" s="46"/>
-    </row>
-    <row r="2370" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2370" s="49"/>
-      <c r="N2370" s="46"/>
-      <c r="V2370" s="46"/>
-    </row>
-    <row r="2371" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2371" s="49"/>
-      <c r="N2371" s="46"/>
-      <c r="V2371" s="46"/>
-    </row>
-    <row r="2372" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2372" s="49"/>
-      <c r="N2372" s="46"/>
-      <c r="V2372" s="46"/>
-    </row>
-    <row r="2373" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2373" s="49"/>
-      <c r="N2373" s="46"/>
-      <c r="V2373" s="46"/>
-    </row>
-    <row r="2374" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2374" s="49"/>
-      <c r="N2374" s="46"/>
-      <c r="V2374" s="46"/>
-    </row>
-    <row r="2375" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2375" s="49"/>
-      <c r="N2375" s="46"/>
-      <c r="V2375" s="46"/>
-    </row>
-    <row r="2376" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2376" s="49"/>
-      <c r="N2376" s="46"/>
-      <c r="V2376" s="46"/>
-    </row>
-    <row r="2377" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2377" s="49"/>
-      <c r="N2377" s="46"/>
-      <c r="V2377" s="46"/>
-    </row>
-    <row r="2378" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2378" s="49"/>
-      <c r="N2378" s="46"/>
-      <c r="V2378" s="46"/>
-    </row>
-    <row r="2379" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2379" s="49"/>
-      <c r="N2379" s="46"/>
-      <c r="V2379" s="46"/>
-    </row>
-    <row r="2380" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2380" s="49"/>
-      <c r="N2380" s="46"/>
-      <c r="V2380" s="46"/>
-    </row>
-    <row r="2381" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2381" s="49"/>
-      <c r="N2381" s="46"/>
-      <c r="V2381" s="46"/>
-    </row>
-    <row r="2382" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2382" s="49"/>
-      <c r="N2382" s="46"/>
-      <c r="V2382" s="46"/>
-    </row>
-    <row r="2383" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2383" s="49"/>
-      <c r="N2383" s="46"/>
-      <c r="V2383" s="46"/>
-    </row>
-    <row r="2384" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2384" s="49"/>
-      <c r="N2384" s="46"/>
-      <c r="V2384" s="46"/>
-    </row>
-    <row r="2385" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2385" s="49"/>
-      <c r="N2385" s="46"/>
-      <c r="V2385" s="46"/>
-    </row>
-    <row r="2386" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2386" s="49"/>
-      <c r="N2386" s="46"/>
-      <c r="V2386" s="46"/>
-    </row>
-    <row r="2387" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2387" s="49"/>
-      <c r="N2387" s="46"/>
-      <c r="V2387" s="46"/>
-    </row>
-    <row r="2388" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2388" s="49"/>
-      <c r="N2388" s="46"/>
-      <c r="V2388" s="46"/>
-    </row>
-    <row r="2389" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2389" s="49"/>
-      <c r="N2389" s="46"/>
-      <c r="V2389" s="46"/>
-    </row>
-    <row r="2390" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2390" s="49"/>
-      <c r="N2390" s="46"/>
-      <c r="V2390" s="46"/>
-    </row>
-    <row r="2391" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2391" s="49"/>
-      <c r="N2391" s="46"/>
-      <c r="V2391" s="46"/>
-    </row>
-    <row r="2392" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2392" s="49"/>
-      <c r="N2392" s="46"/>
-      <c r="V2392" s="46"/>
-    </row>
-    <row r="2393" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2393" s="49"/>
-      <c r="N2393" s="46"/>
-      <c r="V2393" s="46"/>
-    </row>
-    <row r="2394" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2394" s="49"/>
-      <c r="N2394" s="46"/>
-      <c r="V2394" s="46"/>
-    </row>
-    <row r="2395" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2395" s="49"/>
-      <c r="N2395" s="46"/>
-      <c r="V2395" s="46"/>
-    </row>
-    <row r="2396" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2396" s="49"/>
-      <c r="N2396" s="46"/>
-      <c r="V2396" s="46"/>
-    </row>
-    <row r="2397" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2397" s="49"/>
-      <c r="N2397" s="46"/>
-      <c r="V2397" s="46"/>
-    </row>
-    <row r="2398" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2398" s="49"/>
-      <c r="N2398" s="46"/>
-      <c r="V2398" s="46"/>
-    </row>
-    <row r="2399" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2399" s="49"/>
-      <c r="N2399" s="46"/>
-      <c r="V2399" s="46"/>
-    </row>
-    <row r="2400" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2400" s="49"/>
-      <c r="N2400" s="46"/>
-      <c r="V2400" s="46"/>
-    </row>
-    <row r="2401" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2401" s="49"/>
-      <c r="N2401" s="46"/>
-      <c r="V2401" s="46"/>
-    </row>
-    <row r="2402" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2402" s="49"/>
-      <c r="N2402" s="46"/>
-      <c r="V2402" s="46"/>
-    </row>
-    <row r="2403" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2403" s="49"/>
-      <c r="N2403" s="46"/>
-      <c r="V2403" s="46"/>
-    </row>
-    <row r="2404" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2404" s="49"/>
-      <c r="N2404" s="46"/>
-      <c r="V2404" s="46"/>
-    </row>
-    <row r="2405" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2405" s="49"/>
-      <c r="N2405" s="46"/>
-      <c r="V2405" s="46"/>
-    </row>
-    <row r="2406" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2406" s="49"/>
-      <c r="N2406" s="46"/>
-      <c r="V2406" s="46"/>
-    </row>
-    <row r="2407" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2407" s="49"/>
-      <c r="N2407" s="46"/>
-      <c r="V2407" s="46"/>
-    </row>
-    <row r="2408" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2408" s="49"/>
-      <c r="N2408" s="46"/>
-      <c r="V2408" s="46"/>
-    </row>
-    <row r="2409" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2409" s="49"/>
-      <c r="N2409" s="46"/>
-      <c r="V2409" s="46"/>
-    </row>
-    <row r="2410" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2410" s="49"/>
-      <c r="N2410" s="46"/>
-      <c r="V2410" s="46"/>
-    </row>
-    <row r="2411" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2411" s="49"/>
-      <c r="N2411" s="46"/>
-      <c r="V2411" s="46"/>
-    </row>
-    <row r="2412" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2412" s="49"/>
-      <c r="N2412" s="46"/>
-      <c r="V2412" s="46"/>
-    </row>
-    <row r="2413" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2413" s="49"/>
-      <c r="N2413" s="46"/>
-      <c r="V2413" s="46"/>
-    </row>
-    <row r="2414" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2414" s="49"/>
-      <c r="N2414" s="46"/>
-      <c r="V2414" s="46"/>
-    </row>
-    <row r="2415" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2415" s="49"/>
-      <c r="N2415" s="46"/>
-      <c r="V2415" s="46"/>
-    </row>
-    <row r="2416" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2416" s="49"/>
-      <c r="N2416" s="46"/>
-      <c r="V2416" s="46"/>
-    </row>
-    <row r="2417" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2417" s="49"/>
-      <c r="N2417" s="46"/>
-      <c r="V2417" s="46"/>
-    </row>
-    <row r="2418" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2418" s="49"/>
-      <c r="N2418" s="46"/>
-      <c r="V2418" s="46"/>
-    </row>
-    <row r="2419" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2419" s="49"/>
-      <c r="N2419" s="46"/>
-      <c r="V2419" s="46"/>
-    </row>
-    <row r="2420" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2420" s="49"/>
-      <c r="N2420" s="46"/>
-      <c r="V2420" s="46"/>
-    </row>
-    <row r="2421" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2421" s="49"/>
-      <c r="N2421" s="46"/>
-      <c r="V2421" s="46"/>
-    </row>
-    <row r="2422" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2422" s="49"/>
-      <c r="N2422" s="46"/>
-      <c r="V2422" s="46"/>
-    </row>
-    <row r="2423" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2423" s="49"/>
-      <c r="N2423" s="46"/>
-      <c r="V2423" s="46"/>
-    </row>
-    <row r="2424" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2424" s="49"/>
-      <c r="N2424" s="46"/>
-      <c r="V2424" s="46"/>
-    </row>
-    <row r="2425" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2425" s="49"/>
-      <c r="N2425" s="46"/>
-      <c r="V2425" s="46"/>
-    </row>
-    <row r="2426" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2426" s="49"/>
-      <c r="N2426" s="46"/>
-      <c r="V2426" s="46"/>
-    </row>
-    <row r="2427" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2427" s="49"/>
-      <c r="N2427" s="46"/>
-      <c r="V2427" s="46"/>
-    </row>
-    <row r="2428" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2428" s="49"/>
-      <c r="N2428" s="46"/>
-      <c r="V2428" s="46"/>
-    </row>
-    <row r="2429" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2429" s="49"/>
-      <c r="N2429" s="46"/>
-      <c r="V2429" s="46"/>
-    </row>
-    <row r="2430" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2430" s="49"/>
-      <c r="N2430" s="46"/>
-      <c r="V2430" s="46"/>
-    </row>
-    <row r="2431" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2431" s="49"/>
-      <c r="N2431" s="46"/>
-      <c r="V2431" s="46"/>
-    </row>
-    <row r="2432" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2432" s="49"/>
-      <c r="N2432" s="46"/>
-      <c r="V2432" s="46"/>
-    </row>
-    <row r="2433" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2433" s="49"/>
-      <c r="N2433" s="46"/>
-      <c r="V2433" s="46"/>
-    </row>
-    <row r="2434" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2434" s="49"/>
-      <c r="N2434" s="46"/>
-      <c r="V2434" s="46"/>
-    </row>
-    <row r="2435" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2435" s="49"/>
-      <c r="N2435" s="46"/>
-      <c r="V2435" s="46"/>
-    </row>
-    <row r="2436" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2436" s="49"/>
-      <c r="N2436" s="46"/>
-      <c r="V2436" s="46"/>
-    </row>
-    <row r="2437" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2437" s="49"/>
-      <c r="N2437" s="46"/>
-      <c r="V2437" s="46"/>
-    </row>
-    <row r="2438" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2438" s="49"/>
-      <c r="N2438" s="46"/>
-      <c r="V2438" s="46"/>
-    </row>
-    <row r="2439" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2439" s="49"/>
-      <c r="N2439" s="46"/>
-      <c r="V2439" s="46"/>
-    </row>
-    <row r="2440" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2440" s="49"/>
-      <c r="N2440" s="46"/>
-      <c r="V2440" s="46"/>
-    </row>
-    <row r="2441" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2441" s="49"/>
-      <c r="N2441" s="46"/>
-      <c r="V2441" s="46"/>
-    </row>
-    <row r="2442" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2442" s="49"/>
-      <c r="N2442" s="46"/>
-      <c r="V2442" s="46"/>
-    </row>
-    <row r="2443" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2443" s="49"/>
-      <c r="N2443" s="46"/>
-      <c r="V2443" s="46"/>
-    </row>
-    <row r="2444" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2444" s="49"/>
-      <c r="N2444" s="46"/>
-      <c r="V2444" s="46"/>
-    </row>
-    <row r="2445" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2445" s="49"/>
-      <c r="N2445" s="46"/>
-      <c r="V2445" s="46"/>
-    </row>
-    <row r="2446" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2446" s="49"/>
-      <c r="N2446" s="46"/>
-      <c r="V2446" s="46"/>
-    </row>
-    <row r="2447" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2447" s="49"/>
-      <c r="N2447" s="46"/>
-      <c r="V2447" s="46"/>
-    </row>
-    <row r="2448" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2448" s="49"/>
-      <c r="N2448" s="46"/>
-      <c r="V2448" s="46"/>
-    </row>
-    <row r="2449" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2449" s="49"/>
-      <c r="N2449" s="46"/>
-      <c r="V2449" s="46"/>
-    </row>
-    <row r="2450" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2450" s="49"/>
-      <c r="N2450" s="46"/>
-      <c r="V2450" s="46"/>
-    </row>
-    <row r="2451" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2451" s="49"/>
-      <c r="N2451" s="46"/>
-      <c r="V2451" s="46"/>
-    </row>
-    <row r="2452" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2452" s="49"/>
-      <c r="N2452" s="47"/>
-      <c r="V2452" s="47"/>
-    </row>
-    <row r="2453" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2453" s="49"/>
-      <c r="N2453" s="46"/>
-      <c r="V2453" s="46"/>
-    </row>
-    <row r="2454" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2454" s="49"/>
-      <c r="N2454" s="46"/>
-      <c r="V2454" s="46"/>
-    </row>
-    <row r="2455" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2455" s="49"/>
-      <c r="N2455" s="46"/>
-      <c r="V2455" s="46"/>
-    </row>
-    <row r="2456" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2456" s="49"/>
-      <c r="N2456" s="46"/>
-      <c r="V2456" s="46"/>
-    </row>
-    <row r="2457" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2457" s="49"/>
-      <c r="N2457" s="46"/>
-      <c r="V2457" s="46"/>
-    </row>
-    <row r="2458" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2458" s="49"/>
-      <c r="N2458" s="46"/>
-      <c r="V2458" s="46"/>
-    </row>
-    <row r="2459" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2459" s="49"/>
-      <c r="N2459" s="46"/>
-      <c r="V2459" s="46"/>
-    </row>
-    <row r="2460" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2460" s="49"/>
-      <c r="N2460" s="46"/>
-      <c r="V2460" s="46"/>
-    </row>
-    <row r="2461" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2461" s="49"/>
-      <c r="N2461" s="46"/>
-      <c r="V2461" s="46"/>
-    </row>
-    <row r="2462" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2462" s="49"/>
-      <c r="N2462" s="46"/>
-      <c r="V2462" s="46"/>
-    </row>
-    <row r="2463" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2463" s="49"/>
-      <c r="N2463" s="46"/>
-      <c r="V2463" s="46"/>
-    </row>
-    <row r="2464" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2464" s="49"/>
-      <c r="N2464" s="46"/>
-      <c r="V2464" s="46"/>
-    </row>
-    <row r="2465" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2465" s="49"/>
-      <c r="N2465" s="46"/>
-      <c r="V2465" s="46"/>
-    </row>
-    <row r="2466" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2466" s="49"/>
-      <c r="N2466" s="46"/>
-      <c r="V2466" s="46"/>
-    </row>
-    <row r="2467" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2467" s="49"/>
-      <c r="N2467" s="46"/>
-      <c r="V2467" s="46"/>
-    </row>
-    <row r="2468" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2468" s="49"/>
-      <c r="N2468" s="46"/>
-      <c r="V2468" s="46"/>
-    </row>
-    <row r="2469" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2469" s="49"/>
-      <c r="N2469" s="46"/>
-      <c r="V2469" s="46"/>
-    </row>
-    <row r="2470" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2470" s="49"/>
-      <c r="N2470" s="46"/>
-      <c r="V2470" s="46"/>
-    </row>
-    <row r="2471" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2471" s="49"/>
-      <c r="N2471" s="46"/>
-      <c r="V2471" s="46"/>
-    </row>
-    <row r="2472" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2472" s="49"/>
-      <c r="N2472" s="46"/>
-      <c r="V2472" s="46"/>
-    </row>
-    <row r="2473" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2473" s="49"/>
-      <c r="N2473" s="46"/>
-      <c r="V2473" s="46"/>
-    </row>
-    <row r="2474" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2474" s="49"/>
-      <c r="N2474" s="46"/>
-      <c r="V2474" s="46"/>
-    </row>
-    <row r="2475" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2475" s="49"/>
-      <c r="N2475" s="46"/>
-      <c r="V2475" s="46"/>
-    </row>
-    <row r="2476" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2476" s="49"/>
-      <c r="N2476" s="46"/>
-      <c r="V2476" s="46"/>
-    </row>
-    <row r="2477" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2477" s="49"/>
-      <c r="N2477" s="46"/>
-      <c r="V2477" s="46"/>
-    </row>
-    <row r="2478" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2478" s="49"/>
-      <c r="N2478" s="46"/>
-      <c r="V2478" s="46"/>
-    </row>
-    <row r="2479" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2479" s="49"/>
-      <c r="N2479" s="46"/>
-      <c r="V2479" s="46"/>
-    </row>
-    <row r="2480" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2480" s="49"/>
-      <c r="N2480" s="46"/>
-      <c r="V2480" s="46"/>
-    </row>
-    <row r="2481" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2481" s="49"/>
-      <c r="N2481" s="46"/>
-      <c r="V2481" s="46"/>
-    </row>
-    <row r="2482" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2482" s="49"/>
-      <c r="N2482" s="46"/>
-      <c r="V2482" s="46"/>
-    </row>
-    <row r="2483" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2483" s="49"/>
-      <c r="N2483" s="46"/>
-      <c r="V2483" s="46"/>
-    </row>
-    <row r="2484" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2484" s="49"/>
-      <c r="N2484" s="46"/>
-      <c r="V2484" s="46"/>
-    </row>
-    <row r="2485" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2485" s="49"/>
-      <c r="N2485" s="46"/>
-      <c r="V2485" s="46"/>
-    </row>
-    <row r="2486" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2486" s="49"/>
-      <c r="N2486" s="46"/>
-      <c r="V2486" s="46"/>
-    </row>
-    <row r="2487" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2487" s="49"/>
-      <c r="N2487" s="46"/>
-      <c r="V2487" s="46"/>
-    </row>
-    <row r="2488" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2488" s="49"/>
-      <c r="N2488" s="46"/>
-      <c r="V2488" s="46"/>
-    </row>
-    <row r="2489" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2489" s="49"/>
-      <c r="N2489" s="46"/>
-      <c r="V2489" s="46"/>
-    </row>
-    <row r="2490" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2490" s="49"/>
-      <c r="N2490" s="46"/>
-      <c r="V2490" s="46"/>
-    </row>
-    <row r="2491" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2491" s="49"/>
-      <c r="N2491" s="46"/>
-      <c r="V2491" s="46"/>
-    </row>
-    <row r="2492" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2492" s="49"/>
-      <c r="N2492" s="46"/>
-      <c r="V2492" s="46"/>
-    </row>
-    <row r="2493" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2493" s="49"/>
-      <c r="N2493" s="46"/>
-      <c r="V2493" s="46"/>
-    </row>
-    <row r="2494" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2494" s="49"/>
-      <c r="N2494" s="46"/>
-      <c r="V2494" s="46"/>
-    </row>
-    <row r="2495" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2495" s="49"/>
-      <c r="N2495" s="46"/>
-      <c r="V2495" s="46"/>
-    </row>
-    <row r="2496" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2496" s="49"/>
-      <c r="N2496" s="46"/>
-      <c r="V2496" s="46"/>
-    </row>
-    <row r="2497" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2497" s="49"/>
-      <c r="N2497" s="46"/>
-      <c r="V2497" s="46"/>
-    </row>
-    <row r="2498" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2498" s="49"/>
-      <c r="N2498" s="46"/>
-      <c r="V2498" s="46"/>
-    </row>
-    <row r="2499" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2499" s="49"/>
-      <c r="N2499" s="46"/>
-      <c r="V2499" s="46"/>
-    </row>
-    <row r="2500" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2500" s="49"/>
-      <c r="N2500" s="46"/>
-      <c r="V2500" s="46"/>
-    </row>
-    <row r="2501" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2501" s="49"/>
-      <c r="N2501" s="46"/>
-      <c r="V2501" s="46"/>
-    </row>
-    <row r="2502" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2502" s="49"/>
-      <c r="N2502" s="46"/>
-      <c r="V2502" s="46"/>
-    </row>
-    <row r="2503" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2503" s="49"/>
-      <c r="N2503" s="46"/>
-      <c r="V2503" s="46"/>
-    </row>
-    <row r="2504" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2504" s="49"/>
-      <c r="N2504" s="46"/>
-      <c r="V2504" s="46"/>
-    </row>
-    <row r="2505" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2505" s="49"/>
-      <c r="N2505" s="46"/>
-      <c r="V2505" s="46"/>
-    </row>
-    <row r="2506" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2506" s="49"/>
-      <c r="N2506" s="46"/>
-      <c r="V2506" s="46"/>
-    </row>
-    <row r="2507" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2507" s="49"/>
-      <c r="N2507" s="46"/>
-      <c r="V2507" s="46"/>
-    </row>
-    <row r="2508" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2508" s="49"/>
-      <c r="N2508" s="46"/>
-      <c r="V2508" s="46"/>
-    </row>
-    <row r="2509" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2509" s="49"/>
-      <c r="N2509" s="46"/>
-      <c r="V2509" s="46"/>
-    </row>
-    <row r="2510" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2510" s="49"/>
-      <c r="N2510" s="46"/>
-      <c r="V2510" s="46"/>
-    </row>
-    <row r="2511" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2511" s="49"/>
-      <c r="N2511" s="46"/>
-      <c r="V2511" s="46"/>
-    </row>
-    <row r="2512" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2512" s="49"/>
-      <c r="N2512" s="46"/>
-      <c r="V2512" s="46"/>
-    </row>
-    <row r="2513" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2513" s="49"/>
-      <c r="N2513" s="46"/>
-      <c r="V2513" s="46"/>
-    </row>
-    <row r="2514" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2514" s="49"/>
-      <c r="N2514" s="46"/>
-      <c r="V2514" s="46"/>
-    </row>
-    <row r="2515" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2515" s="49"/>
-      <c r="N2515" s="46"/>
-      <c r="V2515" s="46"/>
-    </row>
-    <row r="2516" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2516" s="49"/>
-      <c r="N2516" s="46"/>
-      <c r="V2516" s="46"/>
-    </row>
-    <row r="2517" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2517" s="49"/>
-      <c r="N2517" s="46"/>
-      <c r="V2517" s="46"/>
-    </row>
-    <row r="2518" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2518" s="49"/>
-      <c r="N2518" s="46"/>
-      <c r="V2518" s="46"/>
-    </row>
-    <row r="2519" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2519" s="49"/>
-      <c r="N2519" s="46"/>
-      <c r="V2519" s="46"/>
-    </row>
-    <row r="2520" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2520" s="49"/>
-      <c r="N2520" s="46"/>
-      <c r="V2520" s="46"/>
-    </row>
-    <row r="2521" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2521" s="49"/>
-      <c r="N2521" s="46"/>
-      <c r="V2521" s="46"/>
-    </row>
-    <row r="2522" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2522" s="49"/>
-      <c r="N2522" s="46"/>
-      <c r="V2522" s="46"/>
-    </row>
-    <row r="2523" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2523" s="49"/>
-      <c r="N2523" s="46"/>
-      <c r="V2523" s="46"/>
-    </row>
-    <row r="2524" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2524" s="49"/>
-      <c r="N2524" s="46"/>
-      <c r="V2524" s="46"/>
-    </row>
-    <row r="2525" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2525" s="49"/>
-      <c r="N2525" s="46"/>
-      <c r="V2525" s="46"/>
-    </row>
-    <row r="2526" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2526" s="49"/>
-      <c r="N2526" s="46"/>
-      <c r="V2526" s="46"/>
-    </row>
-    <row r="2527" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2527" s="49"/>
-      <c r="N2527" s="46"/>
-      <c r="V2527" s="46"/>
-    </row>
-    <row r="2528" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2528" s="49"/>
-      <c r="N2528" s="46"/>
-      <c r="V2528" s="46"/>
-    </row>
-    <row r="2529" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2529" s="49"/>
-      <c r="N2529" s="46"/>
-      <c r="V2529" s="46"/>
-    </row>
-    <row r="2530" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2530" s="49"/>
-      <c r="N2530" s="46"/>
-      <c r="V2530" s="46"/>
-    </row>
-    <row r="2531" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2531" s="49"/>
-      <c r="N2531" s="46"/>
-      <c r="V2531" s="46"/>
-    </row>
-    <row r="2532" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2532" s="49"/>
-      <c r="N2532" s="46"/>
-      <c r="V2532" s="46"/>
-    </row>
-    <row r="2533" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2533" s="49"/>
-      <c r="N2533" s="46"/>
-      <c r="V2533" s="46"/>
-    </row>
-    <row r="2534" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2534" s="49"/>
-      <c r="N2534" s="46"/>
-      <c r="V2534" s="46"/>
-    </row>
-    <row r="2535" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2535" s="49"/>
-      <c r="N2535" s="46"/>
-      <c r="V2535" s="46"/>
-    </row>
-    <row r="2536" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2536" s="49"/>
-      <c r="N2536" s="46"/>
-      <c r="V2536" s="46"/>
-    </row>
-    <row r="2537" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2537" s="49"/>
-      <c r="N2537" s="46"/>
-      <c r="V2537" s="46"/>
-    </row>
-    <row r="2538" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2538" s="49"/>
-      <c r="N2538" s="46"/>
-      <c r="V2538" s="46"/>
-    </row>
-    <row r="2539" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2539" s="49"/>
-      <c r="N2539" s="46"/>
-      <c r="V2539" s="46"/>
-    </row>
-    <row r="2540" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2540" s="49"/>
-      <c r="N2540" s="46"/>
-      <c r="V2540" s="46"/>
-    </row>
-    <row r="2541" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2541" s="49"/>
-      <c r="N2541" s="46"/>
-      <c r="V2541" s="46"/>
-    </row>
-    <row r="2542" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2542" s="49"/>
-      <c r="N2542" s="46"/>
-      <c r="V2542" s="46"/>
-    </row>
-    <row r="2543" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2543" s="49"/>
-      <c r="N2543" s="46"/>
-      <c r="V2543" s="46"/>
-    </row>
-    <row r="2544" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2544" s="49"/>
-      <c r="N2544" s="46"/>
-      <c r="V2544" s="46"/>
-    </row>
-    <row r="2545" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2545" s="49"/>
-      <c r="N2545" s="46"/>
-      <c r="V2545" s="46"/>
-    </row>
-    <row r="2546" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2546" s="49"/>
-      <c r="N2546" s="46"/>
-      <c r="V2546" s="46"/>
-    </row>
-    <row r="2547" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2547" s="49"/>
-      <c r="N2547" s="46"/>
-      <c r="V2547" s="46"/>
-    </row>
-    <row r="2548" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2548" s="49"/>
-      <c r="N2548" s="46"/>
-      <c r="V2548" s="46"/>
-    </row>
-    <row r="2549" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2549" s="49"/>
-      <c r="N2549" s="46"/>
-      <c r="V2549" s="46"/>
-    </row>
-    <row r="2550" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2550" s="49"/>
-      <c r="N2550" s="46"/>
-      <c r="V2550" s="46"/>
-    </row>
-    <row r="2551" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2551" s="49"/>
-      <c r="N2551" s="46"/>
-      <c r="V2551" s="46"/>
-    </row>
-    <row r="2552" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2552" s="49"/>
-      <c r="N2552" s="46"/>
-      <c r="V2552" s="46"/>
-    </row>
-    <row r="2553" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2553" s="49"/>
-      <c r="N2553" s="46"/>
-      <c r="V2553" s="46"/>
-    </row>
-    <row r="2554" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2554" s="49"/>
-      <c r="N2554" s="46"/>
-      <c r="V2554" s="46"/>
-    </row>
-    <row r="2555" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2555" s="49"/>
-      <c r="N2555" s="46"/>
-      <c r="V2555" s="46"/>
-    </row>
-    <row r="2556" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2556" s="49"/>
-      <c r="N2556" s="46"/>
-      <c r="V2556" s="46"/>
-    </row>
-    <row r="2557" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2557" s="49"/>
-      <c r="N2557" s="46"/>
-      <c r="V2557" s="46"/>
-    </row>
-    <row r="2558" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2558" s="49"/>
-      <c r="N2558" s="46"/>
-      <c r="V2558" s="46"/>
-    </row>
-    <row r="2559" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2559" s="49"/>
-      <c r="N2559" s="46"/>
-      <c r="V2559" s="46"/>
-    </row>
-    <row r="2560" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2560" s="49"/>
-      <c r="N2560" s="46"/>
-      <c r="V2560" s="46"/>
-    </row>
-    <row r="2561" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2561" s="49"/>
-      <c r="N2561" s="46"/>
-      <c r="V2561" s="46"/>
-    </row>
-    <row r="2562" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2562" s="49"/>
-      <c r="N2562" s="46"/>
-      <c r="V2562" s="46"/>
-    </row>
-    <row r="2563" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2563" s="49"/>
-      <c r="N2563" s="46"/>
-      <c r="V2563" s="46"/>
-    </row>
-    <row r="2564" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2564" s="49"/>
-      <c r="N2564" s="46"/>
-      <c r="V2564" s="46"/>
-    </row>
-    <row r="2565" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2565" s="49"/>
-      <c r="N2565" s="46"/>
-      <c r="V2565" s="46"/>
-    </row>
-    <row r="2566" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2566" s="49"/>
-      <c r="N2566" s="46"/>
-      <c r="V2566" s="46"/>
-    </row>
-    <row r="2567" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2567" s="49"/>
-      <c r="N2567" s="46"/>
-      <c r="V2567" s="46"/>
-    </row>
-    <row r="2568" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2568" s="49"/>
-      <c r="N2568" s="46"/>
-      <c r="V2568" s="46"/>
-    </row>
-    <row r="2569" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2569" s="49"/>
-      <c r="N2569" s="46"/>
-      <c r="V2569" s="46"/>
-    </row>
-    <row r="2570" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2570" s="49"/>
-      <c r="N2570" s="46"/>
-      <c r="V2570" s="46"/>
-    </row>
-    <row r="2571" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2571" s="49"/>
-      <c r="N2571" s="46"/>
-      <c r="V2571" s="46"/>
-    </row>
-    <row r="2572" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2572" s="49"/>
-      <c r="N2572" s="46"/>
-      <c r="V2572" s="46"/>
-    </row>
-    <row r="2573" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2573" s="49"/>
-      <c r="N2573" s="46"/>
-      <c r="V2573" s="46"/>
-    </row>
-    <row r="2574" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2574" s="49"/>
-      <c r="N2574" s="46"/>
-      <c r="V2574" s="46"/>
-    </row>
-    <row r="2575" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2575" s="49"/>
-      <c r="N2575" s="46"/>
-      <c r="V2575" s="46"/>
-    </row>
-    <row r="2576" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2576" s="49"/>
-      <c r="N2576" s="46"/>
-      <c r="V2576" s="46"/>
-    </row>
-    <row r="2577" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2577" s="49"/>
-      <c r="N2577" s="46"/>
-      <c r="V2577" s="46"/>
-    </row>
-    <row r="2578" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2578" s="49"/>
-      <c r="N2578" s="46"/>
-      <c r="V2578" s="46"/>
-    </row>
-    <row r="2579" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2579" s="49"/>
-      <c r="N2579" s="46"/>
-      <c r="V2579" s="46"/>
-    </row>
-    <row r="2580" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2580" s="49"/>
-      <c r="N2580" s="46"/>
-      <c r="V2580" s="46"/>
-    </row>
-    <row r="2581" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2581" s="49"/>
-      <c r="N2581" s="46"/>
-      <c r="V2581" s="46"/>
-    </row>
-    <row r="2582" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2582" s="49"/>
-      <c r="N2582" s="46"/>
-      <c r="V2582" s="46"/>
-    </row>
-    <row r="2583" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2583" s="49"/>
-      <c r="N2583" s="46"/>
-      <c r="V2583" s="46"/>
-    </row>
-    <row r="2584" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2584" s="49"/>
-      <c r="N2584" s="46"/>
-      <c r="V2584" s="46"/>
-    </row>
-    <row r="2585" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2585" s="49"/>
-      <c r="N2585" s="46"/>
-      <c r="V2585" s="46"/>
-    </row>
-    <row r="2586" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2586" s="49"/>
-      <c r="N2586" s="46"/>
-      <c r="V2586" s="46"/>
-    </row>
-    <row r="2587" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2587" s="49"/>
-      <c r="N2587" s="46"/>
-      <c r="V2587" s="46"/>
-    </row>
-    <row r="2588" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2588" s="49"/>
-      <c r="N2588" s="46"/>
-      <c r="V2588" s="46"/>
-    </row>
-    <row r="2589" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2589" s="49"/>
-      <c r="N2589" s="46"/>
-      <c r="V2589" s="46"/>
-    </row>
-    <row r="2590" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2590" s="49"/>
-      <c r="N2590" s="46"/>
-      <c r="V2590" s="46"/>
-    </row>
-    <row r="2591" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2591" s="49"/>
-      <c r="N2591" s="46"/>
-      <c r="V2591" s="46"/>
-    </row>
-    <row r="2592" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2592" s="49"/>
-      <c r="N2592" s="46"/>
-      <c r="V2592" s="46"/>
-    </row>
-    <row r="2593" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2593" s="49"/>
-      <c r="N2593" s="46"/>
-      <c r="V2593" s="46"/>
-    </row>
-    <row r="2594" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2594" s="49"/>
-      <c r="N2594" s="46"/>
-      <c r="V2594" s="46"/>
-    </row>
-    <row r="2595" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2595" s="49"/>
-      <c r="N2595" s="46"/>
-      <c r="V2595" s="46"/>
-    </row>
-    <row r="2596" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2596" s="49"/>
-      <c r="N2596" s="46"/>
-      <c r="V2596" s="46"/>
-    </row>
-    <row r="2597" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2597" s="49"/>
-      <c r="N2597" s="46"/>
-      <c r="V2597" s="46"/>
-    </row>
-    <row r="2598" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2598" s="49"/>
-      <c r="N2598" s="46"/>
-      <c r="V2598" s="46"/>
-    </row>
-    <row r="2599" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2599" s="49"/>
-      <c r="N2599" s="46"/>
-      <c r="V2599" s="46"/>
-    </row>
-    <row r="2600" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2600" s="49"/>
-      <c r="N2600" s="46"/>
-      <c r="V2600" s="46"/>
-    </row>
-    <row r="2601" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2601" s="49"/>
-      <c r="N2601" s="46"/>
-      <c r="V2601" s="46"/>
-    </row>
-    <row r="2602" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2602" s="49"/>
-      <c r="N2602" s="46"/>
-      <c r="V2602" s="46"/>
-    </row>
-    <row r="2603" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2603" s="49"/>
-      <c r="N2603" s="46"/>
-      <c r="V2603" s="46"/>
-    </row>
-    <row r="2604" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2604" s="49"/>
-      <c r="N2604" s="46"/>
-      <c r="V2604" s="46"/>
-    </row>
-    <row r="2605" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2605" s="49"/>
-      <c r="N2605" s="46"/>
-      <c r="V2605" s="46"/>
-    </row>
-    <row r="2606" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2606" s="49"/>
-      <c r="N2606" s="46"/>
-      <c r="V2606" s="46"/>
-    </row>
-    <row r="2607" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2607" s="49"/>
-      <c r="N2607" s="46"/>
-      <c r="V2607" s="46"/>
-    </row>
-    <row r="2608" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2608" s="49"/>
-      <c r="N2608" s="46"/>
-      <c r="V2608" s="46"/>
-    </row>
-    <row r="2609" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2609" s="49"/>
-      <c r="N2609" s="46"/>
-      <c r="V2609" s="46"/>
-    </row>
-    <row r="2610" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2610" s="49"/>
-      <c r="N2610" s="46"/>
-      <c r="V2610" s="46"/>
-    </row>
-    <row r="2611" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2611" s="49"/>
-      <c r="N2611" s="46"/>
-      <c r="V2611" s="46"/>
-    </row>
-    <row r="2612" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2612" s="49"/>
-      <c r="N2612" s="46"/>
-      <c r="V2612" s="46"/>
-    </row>
-    <row r="2613" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2613" s="49"/>
-      <c r="N2613" s="46"/>
-      <c r="V2613" s="46"/>
-    </row>
-    <row r="2614" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2614" s="49"/>
-      <c r="N2614" s="46"/>
-      <c r="V2614" s="46"/>
-    </row>
-    <row r="2615" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2615" s="49"/>
-      <c r="N2615" s="46"/>
-      <c r="V2615" s="46"/>
-    </row>
-    <row r="2616" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2616" s="49"/>
-      <c r="N2616" s="46"/>
-      <c r="V2616" s="46"/>
-    </row>
-    <row r="2617" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2617" s="49"/>
-      <c r="N2617" s="46"/>
-      <c r="V2617" s="46"/>
-    </row>
-    <row r="2618" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2618" s="49"/>
-      <c r="N2618" s="46"/>
-      <c r="V2618" s="46"/>
-    </row>
-    <row r="2619" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2619" s="49"/>
-      <c r="N2619" s="46"/>
-      <c r="V2619" s="46"/>
-    </row>
-    <row r="2620" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2620" s="49"/>
-      <c r="N2620" s="46"/>
-      <c r="V2620" s="46"/>
-    </row>
-    <row r="2621" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2621" s="49"/>
-      <c r="N2621" s="46"/>
-      <c r="V2621" s="46"/>
-    </row>
-    <row r="2622" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2622" s="49"/>
-      <c r="N2622" s="46"/>
-      <c r="V2622" s="46"/>
-    </row>
-    <row r="2623" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2623" s="49"/>
-      <c r="N2623" s="46"/>
-      <c r="V2623" s="46"/>
-    </row>
-    <row r="2624" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2624" s="49"/>
-      <c r="N2624" s="46"/>
-      <c r="V2624" s="46"/>
-    </row>
-    <row r="2625" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2625" s="49"/>
-      <c r="N2625" s="46"/>
-      <c r="V2625" s="46"/>
-    </row>
-    <row r="2626" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2626" s="49"/>
-      <c r="N2626" s="46"/>
-      <c r="V2626" s="46"/>
-    </row>
-    <row r="2627" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2627" s="49"/>
-      <c r="N2627" s="46"/>
-      <c r="V2627" s="46"/>
-    </row>
-    <row r="2628" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2628" s="49"/>
-      <c r="N2628" s="46"/>
-      <c r="V2628" s="46"/>
-    </row>
-    <row r="2629" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2629" s="49"/>
-      <c r="N2629" s="46"/>
-      <c r="V2629" s="46"/>
-    </row>
-    <row r="2630" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2630" s="49"/>
-      <c r="N2630" s="46"/>
-      <c r="V2630" s="46"/>
-    </row>
-    <row r="2631" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2631" s="49"/>
-      <c r="N2631" s="46"/>
-      <c r="V2631" s="46"/>
-    </row>
-    <row r="2632" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2632" s="49"/>
-      <c r="N2632" s="46"/>
-      <c r="V2632" s="46"/>
-    </row>
-    <row r="2633" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2633" s="49"/>
-      <c r="N2633" s="46"/>
-      <c r="V2633" s="46"/>
-    </row>
-    <row r="2634" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2634" s="49"/>
-      <c r="N2634" s="46"/>
-      <c r="V2634" s="46"/>
-    </row>
-    <row r="2635" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2635" s="49"/>
-      <c r="N2635" s="46"/>
-      <c r="V2635" s="46"/>
-    </row>
-    <row r="2636" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2636" s="49"/>
-      <c r="N2636" s="46"/>
-      <c r="V2636" s="46"/>
-    </row>
-    <row r="2637" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2637" s="49"/>
-      <c r="N2637" s="46"/>
-      <c r="V2637" s="46"/>
-    </row>
-    <row r="2638" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2638" s="49"/>
-      <c r="N2638" s="46"/>
-      <c r="V2638" s="46"/>
-    </row>
-    <row r="2639" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2639" s="49"/>
-      <c r="N2639" s="46"/>
-      <c r="V2639" s="46"/>
-    </row>
-    <row r="2640" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2640" s="49"/>
-      <c r="N2640" s="46"/>
-      <c r="V2640" s="46"/>
-    </row>
-    <row r="2641" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2641" s="49"/>
-      <c r="N2641" s="46"/>
-      <c r="V2641" s="46"/>
-    </row>
-    <row r="2642" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2642" s="49"/>
-      <c r="N2642" s="46"/>
-      <c r="V2642" s="46"/>
-    </row>
-    <row r="2643" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2643" s="49"/>
-      <c r="N2643" s="46"/>
-      <c r="V2643" s="46"/>
-    </row>
-    <row r="2644" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2644" s="49"/>
-      <c r="N2644" s="46"/>
-      <c r="V2644" s="46"/>
-    </row>
-    <row r="2645" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2645" s="49"/>
-      <c r="N2645" s="46"/>
-      <c r="V2645" s="46"/>
-    </row>
-    <row r="2646" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2646" s="49"/>
-      <c r="N2646" s="46"/>
-      <c r="V2646" s="46"/>
-    </row>
-    <row r="2647" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2647" s="49"/>
-      <c r="N2647" s="46"/>
-      <c r="V2647" s="46"/>
-    </row>
-    <row r="2648" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2648" s="49"/>
-      <c r="N2648" s="46"/>
-      <c r="V2648" s="46"/>
-    </row>
-    <row r="2649" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2649" s="49"/>
-      <c r="N2649" s="46"/>
-      <c r="V2649" s="46"/>
-    </row>
-    <row r="2650" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2650" s="49"/>
-      <c r="N2650" s="46"/>
-      <c r="V2650" s="46"/>
-    </row>
-    <row r="2651" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2651" s="49"/>
-      <c r="N2651" s="46"/>
-      <c r="V2651" s="46"/>
-    </row>
-    <row r="2652" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2652" s="49"/>
-      <c r="N2652" s="46"/>
-      <c r="V2652" s="46"/>
-    </row>
-    <row r="2653" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2653" s="49"/>
-      <c r="N2653" s="46"/>
-      <c r="V2653" s="46"/>
-    </row>
-    <row r="2654" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2654" s="49"/>
-      <c r="N2654" s="46"/>
-      <c r="V2654" s="46"/>
-    </row>
-    <row r="2655" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2655" s="49"/>
-      <c r="N2655" s="46"/>
-      <c r="V2655" s="46"/>
-    </row>
-    <row r="2656" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2656" s="49"/>
-      <c r="N2656" s="46"/>
-      <c r="V2656" s="46"/>
-    </row>
-    <row r="2657" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2657" s="49"/>
-      <c r="N2657" s="46"/>
-      <c r="V2657" s="46"/>
-    </row>
-    <row r="2658" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2658" s="49"/>
-      <c r="N2658" s="46"/>
-      <c r="V2658" s="46"/>
-    </row>
-    <row r="2659" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2659" s="49"/>
-      <c r="N2659" s="46"/>
-      <c r="V2659" s="46"/>
-    </row>
-    <row r="2660" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2660" s="49"/>
-      <c r="N2660" s="46"/>
-      <c r="V2660" s="46"/>
-    </row>
-    <row r="2661" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2661" s="49"/>
-      <c r="N2661" s="46"/>
-      <c r="V2661" s="46"/>
-    </row>
-    <row r="2662" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2662" s="49"/>
-      <c r="N2662" s="46"/>
-      <c r="V2662" s="46"/>
-    </row>
-    <row r="2663" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2663" s="49"/>
-      <c r="N2663" s="46"/>
-      <c r="V2663" s="46"/>
-    </row>
-    <row r="2664" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2664" s="49"/>
-      <c r="N2664" s="46"/>
-      <c r="V2664" s="46"/>
-    </row>
-    <row r="2665" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2665" s="49"/>
-      <c r="N2665" s="46"/>
-      <c r="V2665" s="46"/>
-    </row>
-    <row r="2666" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2666" s="49"/>
-      <c r="N2666" s="46"/>
-      <c r="V2666" s="46"/>
-    </row>
-    <row r="2667" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2667" s="49"/>
-      <c r="N2667" s="46"/>
-      <c r="V2667" s="46"/>
-    </row>
-    <row r="2668" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2668" s="49"/>
-      <c r="N2668" s="46"/>
-      <c r="V2668" s="46"/>
-    </row>
-    <row r="2669" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2669" s="49"/>
-      <c r="N2669" s="46"/>
-      <c r="V2669" s="46"/>
-    </row>
-    <row r="2670" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2670" s="49"/>
-      <c r="N2670" s="46"/>
-      <c r="V2670" s="46"/>
-    </row>
-    <row r="2671" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2671" s="49"/>
-      <c r="N2671" s="46"/>
-      <c r="V2671" s="46"/>
-    </row>
-    <row r="2672" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2672" s="49"/>
-      <c r="N2672" s="46"/>
-      <c r="V2672" s="46"/>
-    </row>
-    <row r="2673" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2673" s="49"/>
-      <c r="N2673" s="46"/>
-      <c r="V2673" s="46"/>
-    </row>
-    <row r="2674" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2674" s="49"/>
-      <c r="N2674" s="46"/>
-      <c r="V2674" s="46"/>
-    </row>
-    <row r="2675" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2675" s="49"/>
-      <c r="N2675" s="46"/>
-      <c r="V2675" s="46"/>
-    </row>
-    <row r="2676" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2676" s="49"/>
-      <c r="N2676" s="46"/>
-      <c r="V2676" s="46"/>
-    </row>
-    <row r="2677" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2677" s="49"/>
-      <c r="N2677" s="46"/>
-      <c r="V2677" s="46"/>
-    </row>
-    <row r="2678" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2678" s="49"/>
-      <c r="N2678" s="46"/>
-      <c r="V2678" s="46"/>
-    </row>
-    <row r="2679" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2679" s="49"/>
-      <c r="N2679" s="46"/>
-      <c r="V2679" s="46"/>
-    </row>
-    <row r="2680" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2680" s="49"/>
-      <c r="N2680" s="46"/>
-      <c r="V2680" s="46"/>
-    </row>
-    <row r="2681" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2681" s="49"/>
-      <c r="N2681" s="46"/>
-      <c r="V2681" s="46"/>
-    </row>
-    <row r="2682" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2682" s="49"/>
-      <c r="N2682" s="46"/>
-      <c r="V2682" s="46"/>
-    </row>
-    <row r="2683" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2683" s="49"/>
-      <c r="N2683" s="46"/>
-      <c r="V2683" s="46"/>
-    </row>
-    <row r="2684" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2684" s="49"/>
-      <c r="N2684" s="46"/>
-      <c r="V2684" s="46"/>
-    </row>
-    <row r="2685" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2685" s="49"/>
-      <c r="N2685" s="46"/>
-      <c r="V2685" s="46"/>
-    </row>
-    <row r="2686" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2686" s="49"/>
-      <c r="N2686" s="46"/>
-      <c r="V2686" s="46"/>
-    </row>
-    <row r="2687" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2687" s="49"/>
-      <c r="N2687" s="46"/>
-      <c r="V2687" s="46"/>
-    </row>
-    <row r="2688" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2688" s="49"/>
-      <c r="N2688" s="46"/>
-      <c r="V2688" s="46"/>
-    </row>
-    <row r="2689" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2689" s="49"/>
-      <c r="N2689" s="46"/>
-      <c r="V2689" s="46"/>
-    </row>
-    <row r="2690" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2690" s="49"/>
-      <c r="N2690" s="46"/>
-      <c r="V2690" s="46"/>
-    </row>
-    <row r="2691" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2691" s="49"/>
-      <c r="N2691" s="46"/>
-      <c r="V2691" s="46"/>
-    </row>
-    <row r="2692" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2692" s="49"/>
-      <c r="N2692" s="46"/>
-      <c r="V2692" s="46"/>
-    </row>
-    <row r="2693" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2693" s="49"/>
-      <c r="N2693" s="46"/>
-      <c r="V2693" s="46"/>
-    </row>
-    <row r="2694" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2694" s="49"/>
-      <c r="N2694" s="46"/>
-      <c r="V2694" s="46"/>
-    </row>
-    <row r="2695" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2695" s="49"/>
-      <c r="N2695" s="46"/>
-      <c r="V2695" s="46"/>
-    </row>
-    <row r="2696" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2696" s="49"/>
-      <c r="N2696" s="46"/>
-      <c r="V2696" s="46"/>
-    </row>
-    <row r="2697" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2697" s="49"/>
-      <c r="N2697" s="46"/>
-      <c r="V2697" s="46"/>
-    </row>
-    <row r="2698" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2698" s="49"/>
-      <c r="N2698" s="46"/>
-      <c r="V2698" s="46"/>
-    </row>
-    <row r="2699" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2699" s="49"/>
-      <c r="N2699" s="46"/>
-      <c r="V2699" s="46"/>
-    </row>
-    <row r="2700" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2700" s="49"/>
-      <c r="N2700" s="46"/>
-      <c r="V2700" s="46"/>
-    </row>
-    <row r="2701" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2701" s="49"/>
-      <c r="N2701" s="46"/>
-      <c r="V2701" s="46"/>
-    </row>
-    <row r="2702" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2702" s="49"/>
-      <c r="N2702" s="46"/>
-      <c r="V2702" s="46"/>
-    </row>
-    <row r="2703" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2703" s="49"/>
-      <c r="N2703" s="46"/>
-      <c r="V2703" s="46"/>
-    </row>
-    <row r="2704" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2704" s="49"/>
-      <c r="N2704" s="46"/>
-      <c r="V2704" s="46"/>
-    </row>
-    <row r="2705" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2705" s="49"/>
-      <c r="N2705" s="46"/>
-      <c r="V2705" s="46"/>
-    </row>
-    <row r="2706" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2706" s="49"/>
-      <c r="N2706" s="46"/>
-      <c r="V2706" s="46"/>
-    </row>
-    <row r="2707" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2707" s="49"/>
-      <c r="N2707" s="46"/>
-      <c r="V2707" s="46"/>
-    </row>
-    <row r="2708" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2708" s="49"/>
-      <c r="N2708" s="46"/>
-      <c r="V2708" s="46"/>
-    </row>
-    <row r="2709" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2709" s="49"/>
-      <c r="N2709" s="46"/>
-      <c r="V2709" s="46"/>
-    </row>
-    <row r="2710" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2710" s="49"/>
-      <c r="N2710" s="46"/>
-      <c r="V2710" s="46"/>
-    </row>
-    <row r="2711" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2711" s="49"/>
-      <c r="N2711" s="46"/>
-      <c r="V2711" s="46"/>
-    </row>
-    <row r="2712" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2712" s="49"/>
-      <c r="N2712" s="46"/>
-      <c r="V2712" s="46"/>
-    </row>
-    <row r="2713" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2713" s="49"/>
-      <c r="N2713" s="46"/>
-      <c r="V2713" s="46"/>
-    </row>
-    <row r="2714" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2714" s="49"/>
-      <c r="N2714" s="46"/>
-      <c r="V2714" s="46"/>
-    </row>
-    <row r="2715" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2715" s="49"/>
-      <c r="N2715" s="46"/>
-      <c r="V2715" s="46"/>
-    </row>
-    <row r="2716" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2716" s="49"/>
-      <c r="N2716" s="46"/>
-      <c r="V2716" s="46"/>
-    </row>
-    <row r="2717" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2717" s="49"/>
-      <c r="N2717" s="46"/>
-      <c r="V2717" s="46"/>
-    </row>
-    <row r="2718" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2718" s="49"/>
-      <c r="N2718" s="46"/>
-      <c r="V2718" s="46"/>
-    </row>
-    <row r="2719" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2719" s="49"/>
-      <c r="N2719" s="46"/>
-      <c r="V2719" s="46"/>
-    </row>
-    <row r="2720" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2720" s="49"/>
-      <c r="N2720" s="46"/>
-      <c r="V2720" s="46"/>
-    </row>
-    <row r="2721" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2721" s="49"/>
-      <c r="N2721" s="46"/>
-      <c r="V2721" s="46"/>
-    </row>
-    <row r="2722" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2722" s="49"/>
-      <c r="N2722" s="46"/>
-      <c r="V2722" s="46"/>
-    </row>
-    <row r="2723" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2723" s="49"/>
-      <c r="N2723" s="46"/>
-      <c r="V2723" s="46"/>
-    </row>
-    <row r="2724" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2724" s="49"/>
-      <c r="N2724" s="46"/>
-      <c r="V2724" s="46"/>
-    </row>
-    <row r="2725" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2725" s="49"/>
-      <c r="N2725" s="46"/>
-      <c r="V2725" s="46"/>
-    </row>
-    <row r="2726" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2726" s="49"/>
-      <c r="N2726" s="46"/>
-      <c r="V2726" s="46"/>
-    </row>
-    <row r="2727" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2727" s="49"/>
-      <c r="N2727" s="46"/>
-      <c r="V2727" s="46"/>
-    </row>
-    <row r="2728" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I2728" s="49"/>
-      <c r="N2728" s="46"/>
-      <c r="V2728" s="46"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:V2331" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/TS Jatai Working/Padam Input Templates/TS 7.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 7.2 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB872E44-0985-47C7-AFE1-037EFC459106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295AAE22-0127-4BC9-A5A1-B5FEC6046ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6071" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6071" uniqueCount="1180">
   <si>
     <t>Passage</t>
   </si>
@@ -3538,9 +3538,6 @@
   </si>
   <si>
     <t>P[r]</t>
-  </si>
-  <si>
-    <t>P[r]+S{r]</t>
   </si>
   <si>
     <t>P[r]+S[r]+N[r]</t>
@@ -3791,7 +3788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3979,21 +3976,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4286,7 +4268,7 @@
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="S2331" sqref="S2331"/>
+      <selection pane="bottomLeft" activeCell="N1481" sqref="N1481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -10289,7 +10271,7 @@
         <f t="shared" si="8"/>
         <v>146</v>
       </c>
-      <c r="N147" s="70" t="s">
+      <c r="N147" s="65" t="s">
         <v>212</v>
       </c>
       <c r="O147" s="7"/>
@@ -10303,7 +10285,7 @@
     </row>
     <row r="148" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A148" s="57" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B148" s="57"/>
       <c r="C148" s="57"/>
@@ -10329,7 +10311,7 @@
         <f t="shared" si="8"/>
         <v>147</v>
       </c>
-      <c r="N148" s="70" t="s">
+      <c r="N148" s="65" t="s">
         <v>213</v>
       </c>
       <c r="O148" s="7"/>
@@ -16580,7 +16562,7 @@
         <v>116</v>
       </c>
       <c r="N328" s="46" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="O328" s="8" t="s">
         <v>73</v>
@@ -22487,7 +22469,7 @@
       <c r="S499" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="T499" s="69" t="s">
+      <c r="T499" s="64" t="s">
         <v>78</v>
       </c>
       <c r="U499" s="8"/>
@@ -22527,8 +22509,8 @@
       <c r="S500" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="T500" s="69" t="s">
-        <v>1180</v>
+      <c r="T500" s="64" t="s">
+        <v>1179</v>
       </c>
       <c r="U500" s="8"/>
       <c r="V500" s="46"/>
@@ -27616,7 +27598,7 @@
         <v>61</v>
       </c>
       <c r="N648" s="47" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="O648" s="8" t="s">
         <v>70</v>
@@ -44517,35 +44499,35 @@
     </row>
     <row r="1167" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1167" s="31"/>
-      <c r="I1167" s="64" t="s">
+      <c r="I1167" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="J1167" s="65">
+      <c r="J1167" s="52">
         <v>24</v>
       </c>
-      <c r="K1167" s="66">
+      <c r="K1167" s="6">
         <f t="shared" si="54"/>
         <v>1166</v>
       </c>
-      <c r="L1167" s="66">
+      <c r="L1167" s="6">
         <f t="shared" si="55"/>
         <v>50</v>
       </c>
-      <c r="M1167" s="66">
+      <c r="M1167" s="6">
         <f t="shared" si="56"/>
         <v>150</v>
       </c>
-      <c r="N1167" s="67" t="s">
+      <c r="N1167" s="46" t="s">
         <v>590</v>
       </c>
-      <c r="O1167" s="68"/>
-      <c r="P1167" s="68"/>
-      <c r="Q1167" s="68"/>
-      <c r="R1167" s="68"/>
-      <c r="S1167" s="68"/>
-      <c r="T1167" s="68"/>
-      <c r="U1167" s="68"/>
-      <c r="V1167" s="67"/>
+      <c r="O1167" s="8"/>
+      <c r="P1167" s="8"/>
+      <c r="Q1167" s="8"/>
+      <c r="R1167" s="8"/>
+      <c r="S1167" s="8"/>
+      <c r="T1167" s="8"/>
+      <c r="U1167" s="8"/>
+      <c r="V1167" s="46"/>
     </row>
     <row r="1168" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1168" s="49" t="s">
@@ -51422,7 +51404,7 @@
     </row>
     <row r="1381" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1381" s="62" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C1381" s="41"/>
       <c r="H1381" s="34"/>
@@ -51458,7 +51440,7 @@
     </row>
     <row r="1382" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1382" s="8" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C1382" s="41"/>
       <c r="H1382" s="34"/>
@@ -51496,7 +51478,7 @@
     </row>
     <row r="1383" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1383" s="8" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C1383" s="41"/>
       <c r="H1383" s="34"/>
@@ -53898,7 +53880,7 @@
     </row>
     <row r="1456" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1456" s="62" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C1456" s="41"/>
       <c r="I1456" s="49" t="s">
@@ -53933,7 +53915,7 @@
     </row>
     <row r="1457" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1457" s="8" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C1457" s="41"/>
       <c r="I1457" s="49" t="s">
@@ -53968,7 +53950,7 @@
     </row>
     <row r="1458" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1458" s="8" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C1458" s="41"/>
       <c r="G1458" s="34"/>
@@ -54777,8 +54759,8 @@
       <c r="S1481" s="8" t="s">
         <v>1166</v>
       </c>
-      <c r="T1481" s="8" t="s">
-        <v>1170</v>
+      <c r="T1481" s="64" t="s">
+        <v>1167</v>
       </c>
       <c r="U1481" s="8"/>
       <c r="V1481" s="46"/>
@@ -55932,7 +55914,7 @@
     </row>
     <row r="1517" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1517" s="62" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C1517" s="41"/>
       <c r="I1517" s="49" t="s">
@@ -55967,7 +55949,7 @@
     </row>
     <row r="1518" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1518" s="8" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C1518" s="41"/>
       <c r="I1518" s="49" t="s">
@@ -55999,12 +55981,12 @@
       <c r="R1518" s="8"/>
       <c r="S1518" s="8"/>
       <c r="T1518" s="8"/>
-      <c r="U1518" s="69"/>
+      <c r="U1518" s="64"/>
       <c r="V1518" s="46"/>
     </row>
     <row r="1519" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1519" s="8" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C1519" s="41"/>
       <c r="I1519" s="49" t="s">
@@ -56646,7 +56628,7 @@
         <v>1166</v>
       </c>
       <c r="T1537" s="8" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="U1537" s="8"/>
       <c r="V1537" s="46"/>
@@ -66778,10 +66760,10 @@
         <v>809</v>
       </c>
       <c r="S1922" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="T1922" s="1" t="s">
         <v>1174</v>
-      </c>
-      <c r="T1922" s="1" t="s">
-        <v>1175</v>
       </c>
       <c r="V1922" s="46"/>
     </row>

--- a/TS Jatai Working/Padam Input Templates/TS 7.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 7.2 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4DD6CD-D7B6-4BB5-93E4-6490B08BC501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57513095-FCE7-42B5-9291-1154920ABF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6071" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6069" uniqueCount="1177">
   <si>
     <t>Passage</t>
   </si>
@@ -2922,9 +2922,6 @@
     <t xml:space="preserve">bRuqhaqdraqthaqntaqre </t>
   </si>
   <si>
-    <t>upa</t>
-  </si>
-  <si>
     <t>uqpaqyanti#</t>
   </si>
   <si>
@@ -3553,9 +3550,6 @@
   </si>
   <si>
     <t>prA~g. yAnti (swara bakthi??)</t>
-  </si>
-  <si>
-    <t>P[s]</t>
   </si>
   <si>
     <t>jyoti#HpakShA</t>
@@ -4262,10 +4256,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="V128" sqref="V128"/>
+      <selection pane="bottomLeft" activeCell="N657" sqref="N657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6495,7 +6489,7 @@
         <v>43</v>
       </c>
       <c r="N44" s="47" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="O44" s="8" t="s">
         <v>70</v>
@@ -9609,7 +9603,7 @@
       <c r="T128" s="8"/>
       <c r="U128" s="8"/>
       <c r="V128" s="47" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="129" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10282,7 +10276,7 @@
     </row>
     <row r="148" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A148" s="57" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B148" s="57"/>
       <c r="C148" s="57"/>
@@ -12509,7 +12503,7 @@
         <v>211</v>
       </c>
       <c r="N212" s="46" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="O212" s="7"/>
       <c r="P212" s="8" t="s">
@@ -12521,7 +12515,7 @@
       <c r="T212" s="8"/>
       <c r="U212" s="8"/>
       <c r="V212" s="46" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="213" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16253,10 +16247,10 @@
       <c r="Q319" s="8"/>
       <c r="R319" s="8"/>
       <c r="S319" s="8" t="s">
+        <v>1161</v>
+      </c>
+      <c r="T319" s="8" t="s">
         <v>1162</v>
-      </c>
-      <c r="T319" s="8" t="s">
-        <v>1163</v>
       </c>
       <c r="U319" s="8"/>
       <c r="V319" s="46"/>
@@ -16559,7 +16553,7 @@
         <v>116</v>
       </c>
       <c r="N328" s="46" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="O328" s="8" t="s">
         <v>73</v>
@@ -17239,7 +17233,7 @@
         <v>136</v>
       </c>
       <c r="N348" s="46" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="O348" s="8" t="s">
         <v>70</v>
@@ -17453,7 +17447,7 @@
       <c r="T354" s="8"/>
       <c r="U354" s="8"/>
       <c r="V354" s="46" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="355" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17545,7 +17539,7 @@
         <v>3</v>
       </c>
       <c r="N357" s="46" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O357" s="8" t="s">
         <v>70</v>
@@ -17719,7 +17713,7 @@
         <v>8</v>
       </c>
       <c r="N362" s="46" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="O362" s="8" t="s">
         <v>70</v>
@@ -18065,7 +18059,7 @@
         <v>18</v>
       </c>
       <c r="N372" s="46" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O372" s="8" t="s">
         <v>70</v>
@@ -18234,7 +18228,7 @@
         <v>23</v>
       </c>
       <c r="N377" s="46" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="O377" s="8" t="s">
         <v>70</v>
@@ -18304,7 +18298,7 @@
         <v>25</v>
       </c>
       <c r="N379" s="46" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O379" s="8" t="s">
         <v>70</v>
@@ -18407,7 +18401,7 @@
         <v>28</v>
       </c>
       <c r="N382" s="46" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="O382" s="8" t="s">
         <v>70</v>
@@ -18477,7 +18471,7 @@
         <v>30</v>
       </c>
       <c r="N384" s="46" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="O384" s="8" t="s">
         <v>70</v>
@@ -18584,7 +18578,7 @@
         <v>33</v>
       </c>
       <c r="N387" s="46" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="O387" s="8" t="s">
         <v>70</v>
@@ -18687,7 +18681,7 @@
         <v>36</v>
       </c>
       <c r="N390" s="46" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="O390" s="8" t="s">
         <v>70</v>
@@ -18792,7 +18786,7 @@
         <v>39</v>
       </c>
       <c r="N393" s="46" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="O393" s="8" t="s">
         <v>70</v>
@@ -18994,7 +18988,7 @@
         <v>45</v>
       </c>
       <c r="N399" s="46" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="O399" s="8" t="s">
         <v>70</v>
@@ -19031,7 +19025,7 @@
         <v>46</v>
       </c>
       <c r="N400" s="46" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="O400" s="8" t="s">
         <v>70</v>
@@ -19101,7 +19095,7 @@
         <v>48</v>
       </c>
       <c r="N402" s="46" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="O402" s="8" t="s">
         <v>70</v>
@@ -20959,7 +20953,7 @@
         <v>1</v>
       </c>
       <c r="N455" s="46" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O455" s="8" t="s">
         <v>70</v>
@@ -20996,7 +20990,7 @@
         <v>2</v>
       </c>
       <c r="N456" s="46" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O456" s="8" t="s">
         <v>70</v>
@@ -21168,7 +21162,7 @@
         <v>7</v>
       </c>
       <c r="N461" s="46" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="O461" s="8" t="s">
         <v>73</v>
@@ -21302,7 +21296,7 @@
         <v>11</v>
       </c>
       <c r="N465" s="46" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O465" s="8" t="s">
         <v>70</v>
@@ -21611,7 +21605,7 @@
         <v>20</v>
       </c>
       <c r="N474" s="46" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="O474" s="8" t="s">
         <v>70</v>
@@ -21714,7 +21708,7 @@
         <v>23</v>
       </c>
       <c r="N477" s="46" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O477" s="8" t="s">
         <v>70</v>
@@ -21784,7 +21778,7 @@
         <v>25</v>
       </c>
       <c r="N479" s="46" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="O479" s="8" t="s">
         <v>70</v>
@@ -21854,7 +21848,7 @@
         <v>27</v>
       </c>
       <c r="N481" s="46" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O481" s="8" t="s">
         <v>70</v>
@@ -22221,7 +22215,7 @@
         <v>38</v>
       </c>
       <c r="N492" s="46" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="O492" s="8" t="s">
         <v>73</v>
@@ -22496,19 +22490,15 @@
         <f t="shared" si="23"/>
         <v>46</v>
       </c>
-      <c r="N500" s="58" t="s">
+      <c r="N500" s="46" t="s">
         <v>339</v>
       </c>
       <c r="O500" s="7"/>
       <c r="P500" s="8"/>
       <c r="Q500" s="8"/>
       <c r="R500" s="8"/>
-      <c r="S500" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="T500" s="64" t="s">
-        <v>1175</v>
-      </c>
+      <c r="S500" s="8"/>
+      <c r="T500" s="64"/>
       <c r="U500" s="8"/>
       <c r="V500" s="46"/>
     </row>
@@ -22537,7 +22527,7 @@
         <v>47</v>
       </c>
       <c r="N501" s="46" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="O501" s="8" t="s">
         <v>70</v>
@@ -22577,7 +22567,7 @@
         <v>48</v>
       </c>
       <c r="N502" s="46" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O502" s="8" t="s">
         <v>73</v>
@@ -22818,7 +22808,7 @@
         <v>55</v>
       </c>
       <c r="N509" s="46" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="O509" s="8" t="s">
         <v>70</v>
@@ -22888,7 +22878,7 @@
         <v>57</v>
       </c>
       <c r="N511" s="46" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="O511" s="8" t="s">
         <v>70</v>
@@ -23057,7 +23047,7 @@
         <v>62</v>
       </c>
       <c r="N516" s="46" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="O516" s="8" t="s">
         <v>70</v>
@@ -23127,7 +23117,7 @@
         <v>64</v>
       </c>
       <c r="N518" s="46" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="O518" s="8" t="s">
         <v>70</v>
@@ -23335,7 +23325,7 @@
         <v>70</v>
       </c>
       <c r="N524" s="46" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="O524" s="8" t="s">
         <v>70</v>
@@ -23552,7 +23542,7 @@
         <v>76</v>
       </c>
       <c r="N530" s="46" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O530" s="8" t="s">
         <v>73</v>
@@ -23653,7 +23643,7 @@
         <v>79</v>
       </c>
       <c r="N533" s="46" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O533" s="8" t="s">
         <v>70</v>
@@ -24382,7 +24372,7 @@
         <v>100</v>
       </c>
       <c r="N554" s="46" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O554" s="8" t="s">
         <v>70</v>
@@ -24451,7 +24441,7 @@
         <v>102</v>
       </c>
       <c r="N556" s="46" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="O556" s="8" t="s">
         <v>70</v>
@@ -24523,7 +24513,7 @@
         <v>104</v>
       </c>
       <c r="N558" s="46" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="O558" s="8" t="s">
         <v>70</v>
@@ -24727,7 +24717,7 @@
         <v>110</v>
       </c>
       <c r="N564" s="46" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="O564" s="8" t="s">
         <v>70</v>
@@ -24830,7 +24820,7 @@
         <v>113</v>
       </c>
       <c r="N567" s="46" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O567" s="8" t="s">
         <v>70</v>
@@ -24900,7 +24890,7 @@
         <v>115</v>
       </c>
       <c r="N569" s="46" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O569" s="8" t="s">
         <v>70</v>
@@ -25201,7 +25191,7 @@
         <v>124</v>
       </c>
       <c r="N578" s="46" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O578" s="8" t="s">
         <v>70</v>
@@ -25403,7 +25393,7 @@
         <v>130</v>
       </c>
       <c r="N584" s="46" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="O584" s="8" t="s">
         <v>70</v>
@@ -25518,7 +25508,7 @@
       <c r="T587" s="8"/>
       <c r="U587" s="8"/>
       <c r="V587" s="46" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="588" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25541,7 +25531,7 @@
         <v>1</v>
       </c>
       <c r="N588" s="46" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O588" s="8" t="s">
         <v>70</v>
@@ -25778,7 +25768,7 @@
         <v>8</v>
       </c>
       <c r="N595" s="46" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="O595" s="8" t="s">
         <v>70</v>
@@ -25947,7 +25937,7 @@
         <v>13</v>
       </c>
       <c r="N600" s="46" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="O600" s="8" t="s">
         <v>70</v>
@@ -26050,7 +26040,7 @@
         <v>16</v>
       </c>
       <c r="N603" s="46" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O603" s="8" t="s">
         <v>70</v>
@@ -26155,7 +26145,7 @@
         <v>19</v>
       </c>
       <c r="N606" s="46" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="O606" s="8" t="s">
         <v>70</v>
@@ -26225,7 +26215,7 @@
         <v>21</v>
       </c>
       <c r="N608" s="46" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="O608" s="8" t="s">
         <v>70</v>
@@ -26296,7 +26286,7 @@
         <v>23</v>
       </c>
       <c r="N610" s="46" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="O610" s="8" t="s">
         <v>70</v>
@@ -26368,7 +26358,7 @@
         <v>25</v>
       </c>
       <c r="N612" s="46" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="O612" s="8" t="s">
         <v>70</v>
@@ -26472,7 +26462,7 @@
         <v>28</v>
       </c>
       <c r="N615" s="46" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O615" s="8" t="s">
         <v>70</v>
@@ -26742,7 +26732,7 @@
         <v>36</v>
       </c>
       <c r="N623" s="46" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O623" s="8" t="s">
         <v>70</v>
@@ -26878,7 +26868,7 @@
         <v>40</v>
       </c>
       <c r="N627" s="46" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O627" s="8" t="s">
         <v>70</v>
@@ -26948,7 +26938,7 @@
         <v>42</v>
       </c>
       <c r="N629" s="46" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O629" s="8" t="s">
         <v>70</v>
@@ -27052,7 +27042,7 @@
         <v>45</v>
       </c>
       <c r="N632" s="46" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O632" s="8" t="s">
         <v>70</v>
@@ -27221,7 +27211,7 @@
         <v>50</v>
       </c>
       <c r="N637" s="46" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O637" s="8" t="s">
         <v>70</v>
@@ -27356,7 +27346,7 @@
         <v>54</v>
       </c>
       <c r="N641" s="46" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O641" s="8" t="s">
         <v>70</v>
@@ -27595,7 +27585,7 @@
         <v>61</v>
       </c>
       <c r="N648" s="47" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="O648" s="8" t="s">
         <v>70</v>
@@ -27768,7 +27758,7 @@
         <v>66</v>
       </c>
       <c r="N653" s="46" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="O653" s="8" t="s">
         <v>70</v>
@@ -27871,7 +27861,7 @@
         <v>69</v>
       </c>
       <c r="N656" s="46" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="O656" s="8" t="s">
         <v>70</v>
@@ -27907,8 +27897,8 @@
         <f t="shared" si="32"/>
         <v>70</v>
       </c>
-      <c r="N657" s="46" t="s">
-        <v>964</v>
+      <c r="N657" s="47" t="s">
+        <v>1166</v>
       </c>
       <c r="O657" s="8" t="s">
         <v>73</v>
@@ -28042,7 +28032,7 @@
         <v>74</v>
       </c>
       <c r="N661" s="46" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="O661" s="8" t="s">
         <v>70</v>
@@ -28463,7 +28453,7 @@
         <v>87</v>
       </c>
       <c r="N674" s="46" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="O674" s="8" t="s">
         <v>70</v>
@@ -28622,7 +28612,7 @@
         <v>92</v>
       </c>
       <c r="N679" s="46" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O679" s="8" t="s">
         <v>70</v>
@@ -28688,7 +28678,7 @@
         <v>94</v>
       </c>
       <c r="N681" s="46" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="O681" s="8" t="s">
         <v>70</v>
@@ -28847,7 +28837,7 @@
         <v>99</v>
       </c>
       <c r="N686" s="46" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="O686" s="8" t="s">
         <v>70</v>
@@ -29005,7 +28995,7 @@
         <v>104</v>
       </c>
       <c r="N691" s="46" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O691" s="8" t="s">
         <v>70</v>
@@ -29331,7 +29321,7 @@
         <v>114</v>
       </c>
       <c r="N701" s="46" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O701" s="8" t="s">
         <v>70</v>
@@ -29397,7 +29387,7 @@
         <v>116</v>
       </c>
       <c r="N703" s="46" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="O703" s="8" t="s">
         <v>70</v>
@@ -29785,7 +29775,7 @@
         <v>128</v>
       </c>
       <c r="N715" s="46" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="O715" s="8" t="s">
         <v>70</v>
@@ -29820,7 +29810,7 @@
         <v>129</v>
       </c>
       <c r="N716" s="46" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O716" s="8" t="s">
         <v>70</v>
@@ -29887,7 +29877,7 @@
         <v>131</v>
       </c>
       <c r="N718" s="46" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="O718" s="8" t="s">
         <v>70</v>
@@ -29953,7 +29943,7 @@
         <v>133</v>
       </c>
       <c r="N720" s="46" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O720" s="8" t="s">
         <v>73</v>
@@ -30141,7 +30131,7 @@
         <v>139</v>
       </c>
       <c r="N726" s="46" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="O726" s="8" t="s">
         <v>70</v>
@@ -30271,7 +30261,7 @@
         <v>143</v>
       </c>
       <c r="N730" s="46" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="O730" s="8" t="s">
         <v>70</v>
@@ -30339,7 +30329,7 @@
         <v>145</v>
       </c>
       <c r="N732" s="46" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="O732" s="8" t="s">
         <v>70</v>
@@ -30375,7 +30365,7 @@
         <v>146</v>
       </c>
       <c r="N733" s="46" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O733" s="8" t="s">
         <v>70</v>
@@ -30534,7 +30524,7 @@
         <v>151</v>
       </c>
       <c r="N738" s="46" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="O738" s="8" t="s">
         <v>70</v>
@@ -30631,7 +30621,7 @@
         <v>154</v>
       </c>
       <c r="N741" s="46" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O741" s="8" t="s">
         <v>70</v>
@@ -30697,7 +30687,7 @@
         <v>156</v>
       </c>
       <c r="N743" s="46" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O743" s="8" t="s">
         <v>73</v>
@@ -30885,7 +30875,7 @@
         <v>162</v>
       </c>
       <c r="N749" s="46" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="O749" s="8" t="s">
         <v>70</v>
@@ -31044,7 +31034,7 @@
         <v>167</v>
       </c>
       <c r="N754" s="46" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="O754" s="8" t="s">
         <v>73</v>
@@ -31139,7 +31129,7 @@
         <v>170</v>
       </c>
       <c r="N757" s="46" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="O757" s="8" t="s">
         <v>70</v>
@@ -31238,7 +31228,7 @@
         <v>173</v>
       </c>
       <c r="N760" s="46" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O760" s="8" t="s">
         <v>70</v>
@@ -31306,7 +31296,7 @@
         <v>175</v>
       </c>
       <c r="N762" s="46" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="O762" s="8" t="s">
         <v>70</v>
@@ -31374,7 +31364,7 @@
         <v>177</v>
       </c>
       <c r="N764" s="46" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O764" s="8" t="s">
         <v>73</v>
@@ -31562,7 +31552,7 @@
         <v>183</v>
       </c>
       <c r="N770" s="46" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="O770" s="8" t="s">
         <v>70</v>
@@ -31692,7 +31682,7 @@
         <v>187</v>
       </c>
       <c r="N774" s="46" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="O774" s="8" t="s">
         <v>73</v>
@@ -32294,7 +32284,7 @@
         <v>206</v>
       </c>
       <c r="N793" s="46" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="O793" s="8" t="s">
         <v>70</v>
@@ -32360,7 +32350,7 @@
         <v>208</v>
       </c>
       <c r="N795" s="46" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="O795" s="8" t="s">
         <v>70</v>
@@ -32426,7 +32416,7 @@
         <v>210</v>
       </c>
       <c r="N797" s="46" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="O797" s="8" t="s">
         <v>70</v>
@@ -32622,7 +32612,7 @@
         <v>216</v>
       </c>
       <c r="N803" s="46" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="O803" s="8" t="s">
         <v>70</v>
@@ -32736,7 +32726,7 @@
         <v>219</v>
       </c>
       <c r="N806" s="46" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="O806" s="8" t="s">
         <v>70</v>
@@ -33255,7 +33245,7 @@
         <v>235</v>
       </c>
       <c r="N822" s="46" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="O822" s="8" t="s">
         <v>70</v>
@@ -33486,7 +33476,7 @@
         <v>242</v>
       </c>
       <c r="N829" s="46" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O829" s="8" t="s">
         <v>70</v>
@@ -33521,7 +33511,7 @@
         <v>243</v>
       </c>
       <c r="N830" s="46" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O830" s="8" t="s">
         <v>70</v>
@@ -34152,7 +34142,7 @@
         <v>262</v>
       </c>
       <c r="N849" s="46" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O849" s="8" t="s">
         <v>70</v>
@@ -34187,7 +34177,7 @@
         <v>263</v>
       </c>
       <c r="N850" s="46" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O850" s="8" t="s">
         <v>70</v>
@@ -34222,7 +34212,7 @@
         <v>264</v>
       </c>
       <c r="N851" s="46" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="O851" s="8" t="s">
         <v>70</v>
@@ -34319,7 +34309,7 @@
         <v>267</v>
       </c>
       <c r="N854" s="46" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="O854" s="8" t="s">
         <v>70</v>
@@ -34354,7 +34344,7 @@
         <v>268</v>
       </c>
       <c r="N855" s="46" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O855" s="8" t="s">
         <v>70</v>
@@ -34552,7 +34542,7 @@
         <v>274</v>
       </c>
       <c r="N861" s="46" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="O861" s="8" t="s">
         <v>70</v>
@@ -34886,7 +34876,7 @@
         <v>3</v>
       </c>
       <c r="N871" s="46" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O871" s="8" t="s">
         <v>70</v>
@@ -34921,7 +34911,7 @@
         <v>4</v>
       </c>
       <c r="N872" s="46" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O872" s="8" t="s">
         <v>70</v>
@@ -35081,7 +35071,7 @@
         <v>9</v>
       </c>
       <c r="N877" s="46" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O877" s="8" t="s">
         <v>70</v>
@@ -35147,7 +35137,7 @@
         <v>11</v>
       </c>
       <c r="N879" s="46" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O879" s="8" t="s">
         <v>70</v>
@@ -35246,7 +35236,7 @@
         <v>14</v>
       </c>
       <c r="N882" s="46" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O882" s="8" t="s">
         <v>70</v>
@@ -35312,7 +35302,7 @@
         <v>16</v>
       </c>
       <c r="N884" s="46" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="O884" s="8" t="s">
         <v>70</v>
@@ -35471,7 +35461,7 @@
         <v>21</v>
       </c>
       <c r="N889" s="46" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O889" s="8" t="s">
         <v>70</v>
@@ -35787,7 +35777,7 @@
         <v>31</v>
       </c>
       <c r="N899" s="46" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O899" s="8" t="s">
         <v>70</v>
@@ -35854,7 +35844,7 @@
         <v>33</v>
       </c>
       <c r="N901" s="46" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O901" s="8" t="s">
         <v>70</v>
@@ -35956,7 +35946,7 @@
         <v>36</v>
       </c>
       <c r="N904" s="46" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O904" s="8" t="s">
         <v>70</v>
@@ -36024,7 +36014,7 @@
         <v>38</v>
       </c>
       <c r="N906" s="46" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="O906" s="8" t="s">
         <v>70</v>
@@ -36253,7 +36243,7 @@
         <v>45</v>
       </c>
       <c r="N913" s="46" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="O913" s="8" t="s">
         <v>70</v>
@@ -36597,7 +36587,7 @@
         <v>56</v>
       </c>
       <c r="N924" s="46" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O924" s="8" t="s">
         <v>70</v>
@@ -36663,7 +36653,7 @@
         <v>58</v>
       </c>
       <c r="N926" s="46" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O926" s="8" t="s">
         <v>70</v>
@@ -36760,7 +36750,7 @@
         <v>61</v>
       </c>
       <c r="N929" s="46" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O929" s="8" t="s">
         <v>70</v>
@@ -36859,7 +36849,7 @@
         <v>64</v>
       </c>
       <c r="N932" s="46" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O932" s="8" t="s">
         <v>70</v>
@@ -36925,7 +36915,7 @@
         <v>66</v>
       </c>
       <c r="N934" s="46" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="O934" s="8" t="s">
         <v>70</v>
@@ -37278,7 +37268,7 @@
         <v>77</v>
       </c>
       <c r="N945" s="46" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="O945" s="8" t="s">
         <v>70</v>
@@ -37344,7 +37334,7 @@
         <v>79</v>
       </c>
       <c r="N947" s="46" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="O947" s="8" t="s">
         <v>70</v>
@@ -37924,7 +37914,7 @@
         <v>97</v>
       </c>
       <c r="N965" s="46" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O965" s="8" t="s">
         <v>70</v>
@@ -37990,7 +37980,7 @@
         <v>99</v>
       </c>
       <c r="N967" s="46" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="O967" s="8" t="s">
         <v>70</v>
@@ -38086,7 +38076,7 @@
         <v>102</v>
       </c>
       <c r="N970" s="46" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="O970" s="8" t="s">
         <v>70</v>
@@ -38183,7 +38173,7 @@
         <v>105</v>
       </c>
       <c r="N973" s="46" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="O973" s="8" t="s">
         <v>70</v>
@@ -38282,7 +38272,7 @@
         <v>108</v>
       </c>
       <c r="N976" s="46" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="O976" s="8" t="s">
         <v>70</v>
@@ -38348,7 +38338,7 @@
         <v>110</v>
       </c>
       <c r="N978" s="46" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O978" s="8" t="s">
         <v>70</v>
@@ -38638,7 +38628,7 @@
         <v>119</v>
       </c>
       <c r="N987" s="46" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="O987" s="8" t="s">
         <v>70</v>
@@ -38704,7 +38694,7 @@
         <v>121</v>
       </c>
       <c r="N989" s="46" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="O989" s="8" t="s">
         <v>70</v>
@@ -38989,7 +38979,7 @@
         <v>130</v>
       </c>
       <c r="N998" s="46" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="O998" s="8" t="s">
         <v>70</v>
@@ -39348,7 +39338,7 @@
         <v>141</v>
       </c>
       <c r="N1009" s="46" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O1009" s="8" t="s">
         <v>70</v>
@@ -39384,7 +39374,7 @@
         <v>142</v>
       </c>
       <c r="N1010" s="46" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O1010" s="8" t="s">
         <v>70</v>
@@ -39492,7 +39482,7 @@
         <v>145</v>
       </c>
       <c r="N1013" s="46" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="O1013" s="8" t="s">
         <v>70</v>
@@ -39589,7 +39579,7 @@
         <v>148</v>
       </c>
       <c r="N1016" s="46" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="O1016" s="8" t="s">
         <v>70</v>
@@ -39624,7 +39614,7 @@
         <v>149</v>
       </c>
       <c r="N1017" s="46" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="O1017" s="8" t="s">
         <v>70</v>
@@ -39638,7 +39628,7 @@
       <c r="T1017" s="8"/>
       <c r="U1017" s="8"/>
       <c r="V1017" s="46" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1018" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39659,7 +39649,7 @@
         <v>1</v>
       </c>
       <c r="N1018" s="46" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="O1018" s="8" t="s">
         <v>70</v>
@@ -39792,7 +39782,7 @@
         <v>5</v>
       </c>
       <c r="N1022" s="46" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O1022" s="8" t="s">
         <v>70</v>
@@ -39831,7 +39821,7 @@
         <v>6</v>
       </c>
       <c r="N1023" s="46" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O1023" s="8" t="s">
         <v>70</v>
@@ -40022,7 +40012,7 @@
         <v>12</v>
       </c>
       <c r="N1029" s="46" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O1029" s="8" t="s">
         <v>73</v>
@@ -40055,7 +40045,7 @@
         <v>13</v>
       </c>
       <c r="N1030" s="46" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O1030" s="8" t="s">
         <v>70</v>
@@ -40183,7 +40173,7 @@
         <v>17</v>
       </c>
       <c r="N1034" s="46" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O1034" s="8" t="s">
         <v>73</v>
@@ -40278,7 +40268,7 @@
         <v>20</v>
       </c>
       <c r="N1037" s="46" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O1037" s="8" t="s">
         <v>70</v>
@@ -40346,7 +40336,7 @@
         <v>22</v>
       </c>
       <c r="N1039" s="46" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O1039" s="8" t="s">
         <v>70</v>
@@ -40571,7 +40561,7 @@
         <v>29</v>
       </c>
       <c r="N1046" s="46" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="O1046" s="8" t="s">
         <v>70</v>
@@ -40668,7 +40658,7 @@
         <v>32</v>
       </c>
       <c r="N1049" s="46" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O1049" s="8" t="s">
         <v>70</v>
@@ -40765,7 +40755,7 @@
         <v>35</v>
       </c>
       <c r="N1052" s="46" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="O1052" s="8" t="s">
         <v>73</v>
@@ -40891,7 +40881,7 @@
         <v>39</v>
       </c>
       <c r="N1056" s="46" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="O1056" s="8" t="s">
         <v>70</v>
@@ -40926,7 +40916,7 @@
         <v>40</v>
       </c>
       <c r="N1057" s="46" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="O1057" s="8" t="s">
         <v>70</v>
@@ -40961,7 +40951,7 @@
         <v>41</v>
       </c>
       <c r="N1058" s="46" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O1058" s="8" t="s">
         <v>70</v>
@@ -41058,7 +41048,7 @@
         <v>44</v>
       </c>
       <c r="N1061" s="46" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O1061" s="8" t="s">
         <v>73</v>
@@ -41122,7 +41112,7 @@
         <v>46</v>
       </c>
       <c r="N1063" s="46" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="O1063" s="8" t="s">
         <v>70</v>
@@ -41284,7 +41274,7 @@
         <v>51</v>
       </c>
       <c r="N1068" s="46" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="O1068" s="8" t="s">
         <v>70</v>
@@ -41381,7 +41371,7 @@
         <v>54</v>
       </c>
       <c r="N1071" s="46" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="O1071" s="8" t="s">
         <v>73</v>
@@ -41507,7 +41497,7 @@
         <v>58</v>
       </c>
       <c r="N1075" s="46" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="O1075" s="8" t="s">
         <v>70</v>
@@ -41542,7 +41532,7 @@
         <v>59</v>
       </c>
       <c r="N1076" s="46" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="O1076" s="8" t="s">
         <v>70</v>
@@ -41577,7 +41567,7 @@
         <v>60</v>
       </c>
       <c r="N1077" s="46" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="O1077" s="8" t="s">
         <v>70</v>
@@ -41612,7 +41602,7 @@
         <v>61</v>
       </c>
       <c r="N1078" s="46" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="O1078" s="8" t="s">
         <v>70</v>
@@ -41710,7 +41700,7 @@
         <v>64</v>
       </c>
       <c r="N1081" s="46" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O1081" s="8" t="s">
         <v>73</v>
@@ -41776,7 +41766,7 @@
         <v>66</v>
       </c>
       <c r="N1083" s="46" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="O1083" s="8" t="s">
         <v>70</v>
@@ -41846,7 +41836,7 @@
         <v>68</v>
       </c>
       <c r="N1085" s="46" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="O1085" s="8" t="s">
         <v>70</v>
@@ -41984,7 +41974,7 @@
         <v>72</v>
       </c>
       <c r="N1089" s="46" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="O1089" s="8" t="s">
         <v>70</v>
@@ -42115,7 +42105,7 @@
         <v>76</v>
       </c>
       <c r="N1093" s="46" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O1093" s="8" t="s">
         <v>73</v>
@@ -42306,7 +42296,7 @@
         <v>82</v>
       </c>
       <c r="N1099" s="46" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="O1099" s="8" t="s">
         <v>70</v>
@@ -42470,7 +42460,7 @@
         <v>87</v>
       </c>
       <c r="N1104" s="46" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O1104" s="8" t="s">
         <v>73</v>
@@ -42539,7 +42529,7 @@
         <v>89</v>
       </c>
       <c r="N1106" s="46" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="O1106" s="8" t="s">
         <v>70</v>
@@ -42606,7 +42596,7 @@
         <v>91</v>
       </c>
       <c r="N1108" s="46" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="O1108" s="8" t="s">
         <v>70</v>
@@ -42641,7 +42631,7 @@
         <v>92</v>
       </c>
       <c r="N1109" s="46" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="O1109" s="8" t="s">
         <v>70</v>
@@ -43004,7 +42994,7 @@
         <v>103</v>
       </c>
       <c r="N1120" s="46" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="O1120" s="8" t="s">
         <v>73</v>
@@ -43351,7 +43341,7 @@
         <v>114</v>
       </c>
       <c r="N1131" s="46" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="O1131" s="8" t="s">
         <v>70</v>
@@ -43418,7 +43408,7 @@
         <v>116</v>
       </c>
       <c r="N1133" s="46" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="O1133" s="8" t="s">
         <v>70</v>
@@ -43454,7 +43444,7 @@
         <v>117</v>
       </c>
       <c r="N1134" s="46" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="O1134" s="8" t="s">
         <v>70</v>
@@ -43585,7 +43575,7 @@
         <v>121</v>
       </c>
       <c r="N1138" s="46" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="O1138" s="8" t="s">
         <v>70</v>
@@ -43870,7 +43860,7 @@
         <v>130</v>
       </c>
       <c r="N1147" s="46" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="O1147" s="8" t="s">
         <v>70</v>
@@ -44197,7 +44187,7 @@
         <v>140</v>
       </c>
       <c r="N1157" s="46" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="O1157" s="8" t="s">
         <v>70</v>
@@ -44356,7 +44346,7 @@
         <v>145</v>
       </c>
       <c r="N1162" s="46" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="O1162" s="8" t="s">
         <v>73</v>
@@ -44669,7 +44659,7 @@
         <v>155</v>
       </c>
       <c r="N1172" s="46" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="O1172" s="8" t="s">
         <v>70</v>
@@ -45076,7 +45066,7 @@
         <v>168</v>
       </c>
       <c r="N1185" s="46" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O1185" s="8" t="s">
         <v>73</v>
@@ -45264,7 +45254,7 @@
         <v>174</v>
       </c>
       <c r="N1191" s="46" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="O1191" s="8" t="s">
         <v>70</v>
@@ -45330,7 +45320,7 @@
         <v>176</v>
       </c>
       <c r="N1193" s="46" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="O1193" s="8" t="s">
         <v>70</v>
@@ -45551,7 +45541,7 @@
         <v>183</v>
       </c>
       <c r="N1200" s="46" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="O1200" s="8" t="s">
         <v>70</v>
@@ -46012,7 +46002,7 @@
         <v>197</v>
       </c>
       <c r="N1214" s="46" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="O1214" s="8" t="s">
         <v>70</v>
@@ -47016,7 +47006,7 @@
         <v>229</v>
       </c>
       <c r="N1246" s="46" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O1246" s="8" t="s">
         <v>70</v>
@@ -47237,7 +47227,7 @@
         <v>236</v>
       </c>
       <c r="N1253" s="46" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O1253" s="8" t="s">
         <v>70</v>
@@ -47303,7 +47293,7 @@
         <v>238</v>
       </c>
       <c r="N1255" s="46" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O1255" s="8" t="s">
         <v>70</v>
@@ -47524,7 +47514,7 @@
         <v>245</v>
       </c>
       <c r="N1262" s="46" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="O1262" s="8" t="s">
         <v>70</v>
@@ -47874,7 +47864,7 @@
         <v>256</v>
       </c>
       <c r="N1273" s="46" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O1273" s="8" t="s">
         <v>70</v>
@@ -47971,7 +47961,7 @@
         <v>259</v>
       </c>
       <c r="N1276" s="46" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O1276" s="8" t="s">
         <v>70</v>
@@ -48192,7 +48182,7 @@
         <v>266</v>
       </c>
       <c r="N1283" s="46" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O1283" s="8" t="s">
         <v>70</v>
@@ -48258,7 +48248,7 @@
         <v>268</v>
       </c>
       <c r="N1285" s="46" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O1285" s="8" t="s">
         <v>70</v>
@@ -48324,7 +48314,7 @@
         <v>270</v>
       </c>
       <c r="N1287" s="46" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O1287" s="8" t="s">
         <v>70</v>
@@ -48485,7 +48475,7 @@
         <v>275</v>
       </c>
       <c r="N1292" s="46" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="O1292" s="7"/>
       <c r="P1292" s="8" t="s">
@@ -48497,7 +48487,7 @@
       <c r="T1292" s="8"/>
       <c r="U1292" s="8"/>
       <c r="V1292" s="46" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1293" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48580,7 +48570,7 @@
         <v>3</v>
       </c>
       <c r="N1295" s="46" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="O1295" s="8" t="s">
         <v>70</v>
@@ -48646,7 +48636,7 @@
         <v>5</v>
       </c>
       <c r="N1297" s="46" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="O1297" s="8" t="s">
         <v>70</v>
@@ -48688,10 +48678,10 @@
       <c r="Q1298" s="8"/>
       <c r="R1298" s="8"/>
       <c r="S1298" s="8" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="T1298" s="8" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="U1298" s="8"/>
       <c r="V1298" s="46"/>
@@ -48747,7 +48737,7 @@
         <v>8</v>
       </c>
       <c r="N1300" s="46" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="O1300" s="8" t="s">
         <v>70</v>
@@ -48813,7 +48803,7 @@
         <v>10</v>
       </c>
       <c r="N1302" s="46" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="O1302" s="8" t="s">
         <v>70</v>
@@ -48972,7 +48962,7 @@
         <v>15</v>
       </c>
       <c r="N1307" s="46" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O1307" s="8" t="s">
         <v>70</v>
@@ -49213,10 +49203,10 @@
       <c r="Q1314" s="8"/>
       <c r="R1314" s="8"/>
       <c r="S1314" s="8" t="s">
+        <v>1161</v>
+      </c>
+      <c r="T1314" s="8" t="s">
         <v>1162</v>
-      </c>
-      <c r="T1314" s="8" t="s">
-        <v>1163</v>
       </c>
       <c r="U1314" s="8"/>
       <c r="V1314" s="46"/>
@@ -49498,7 +49488,7 @@
         <v>31</v>
       </c>
       <c r="N1323" s="46" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O1323" s="8" t="s">
         <v>70</v>
@@ -49739,10 +49729,10 @@
       <c r="Q1330" s="8"/>
       <c r="R1330" s="8"/>
       <c r="S1330" s="8" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="T1330" s="8" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="U1330" s="8"/>
       <c r="V1330" s="46"/>
@@ -50024,7 +50014,7 @@
         <v>47</v>
       </c>
       <c r="N1339" s="46" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O1339" s="8" t="s">
         <v>70</v>
@@ -50676,10 +50666,10 @@
       <c r="Q1359" s="8"/>
       <c r="R1359" s="8"/>
       <c r="S1359" s="8" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="T1359" s="8" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="U1359" s="8"/>
       <c r="V1359" s="46"/>
@@ -50774,7 +50764,7 @@
         <v>70</v>
       </c>
       <c r="N1362" s="46" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="O1362" s="8" t="s">
         <v>70</v>
@@ -50874,7 +50864,7 @@
         <v>73</v>
       </c>
       <c r="N1365" s="46" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="O1365" s="8" t="s">
         <v>70</v>
@@ -51250,7 +51240,7 @@
         <v>84</v>
       </c>
       <c r="N1376" s="46" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O1376" s="8" t="s">
         <v>70</v>
@@ -51401,7 +51391,7 @@
     </row>
     <row r="1381" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1381" s="62" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C1381" s="41"/>
       <c r="H1381" s="34"/>
@@ -51437,7 +51427,7 @@
     </row>
     <row r="1382" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1382" s="8" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C1382" s="41"/>
       <c r="H1382" s="34"/>
@@ -51460,7 +51450,7 @@
         <v>90</v>
       </c>
       <c r="N1382" s="63" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O1382" s="8" t="s">
         <v>73</v>
@@ -51475,7 +51465,7 @@
     </row>
     <row r="1383" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1383" s="8" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C1383" s="41"/>
       <c r="H1383" s="34"/>
@@ -51498,7 +51488,7 @@
         <v>91</v>
       </c>
       <c r="N1383" s="60" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="O1383" s="8" t="s">
         <v>70</v>
@@ -51534,7 +51524,7 @@
         <v>92</v>
       </c>
       <c r="N1384" s="46" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="O1384" s="8" t="s">
         <v>70</v>
@@ -51602,7 +51592,7 @@
         <v>94</v>
       </c>
       <c r="N1386" s="46" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="O1386" s="8" t="s">
         <v>70</v>
@@ -51638,7 +51628,7 @@
         <v>95</v>
       </c>
       <c r="N1387" s="46" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O1387" s="8" t="s">
         <v>70</v>
@@ -51713,10 +51703,10 @@
       <c r="Q1389" s="8"/>
       <c r="R1389" s="8"/>
       <c r="S1389" s="8" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="T1389" s="8" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="U1389" s="8"/>
       <c r="V1389" s="46"/>
@@ -51837,7 +51827,7 @@
         <v>101</v>
       </c>
       <c r="N1393" s="46" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="O1393" s="8" t="s">
         <v>70</v>
@@ -52001,7 +51991,7 @@
         <v>106</v>
       </c>
       <c r="N1398" s="46" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O1398" s="8" t="s">
         <v>70</v>
@@ -52240,10 +52230,10 @@
       <c r="Q1405" s="8"/>
       <c r="R1405" s="8"/>
       <c r="S1405" s="8" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="T1405" s="8" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="U1405" s="8"/>
       <c r="V1405" s="46"/>
@@ -52527,7 +52517,7 @@
         <v>122</v>
       </c>
       <c r="N1414" s="46" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O1414" s="8" t="s">
         <v>70</v>
@@ -53210,10 +53200,10 @@
       <c r="Q1435" s="8"/>
       <c r="R1435" s="8"/>
       <c r="S1435" s="8" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="T1435" s="8" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="U1435" s="8"/>
       <c r="V1435" s="46"/>
@@ -53305,7 +53295,7 @@
         <v>146</v>
       </c>
       <c r="N1438" s="46" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="O1438" s="8" t="s">
         <v>70</v>
@@ -53405,7 +53395,7 @@
         <v>149</v>
       </c>
       <c r="N1441" s="46" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="O1441" s="8" t="s">
         <v>70</v>
@@ -53760,7 +53750,7 @@
         <v>160</v>
       </c>
       <c r="N1452" s="46" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O1452" s="8" t="s">
         <v>70</v>
@@ -53877,7 +53867,7 @@
     </row>
     <row r="1456" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1456" s="62" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C1456" s="41"/>
       <c r="I1456" s="49" t="s">
@@ -53912,7 +53902,7 @@
     </row>
     <row r="1457" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1457" s="8" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C1457" s="41"/>
       <c r="I1457" s="49" t="s">
@@ -53947,7 +53937,7 @@
     </row>
     <row r="1458" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1458" s="8" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C1458" s="41"/>
       <c r="G1458" s="34"/>
@@ -53971,7 +53961,7 @@
         <v>166</v>
       </c>
       <c r="N1458" s="63" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O1458" s="8" t="s">
         <v>73</v>
@@ -54007,7 +53997,7 @@
         <v>167</v>
       </c>
       <c r="N1459" s="60" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="O1459" s="8" t="s">
         <v>70</v>
@@ -54216,10 +54206,10 @@
       <c r="Q1465" s="8"/>
       <c r="R1465" s="8"/>
       <c r="S1465" s="8" t="s">
+        <v>1161</v>
+      </c>
+      <c r="T1465" s="8" t="s">
         <v>1162</v>
-      </c>
-      <c r="T1465" s="8" t="s">
-        <v>1163</v>
       </c>
       <c r="U1465" s="8"/>
       <c r="V1465" s="46"/>
@@ -54502,7 +54492,7 @@
         <v>182</v>
       </c>
       <c r="N1474" s="46" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O1474" s="8" t="s">
         <v>70</v>
@@ -54572,7 +54562,7 @@
         <v>184</v>
       </c>
       <c r="N1476" s="46" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="O1476" s="8" t="s">
         <v>70</v>
@@ -54642,7 +54632,7 @@
         <v>186</v>
       </c>
       <c r="N1478" s="46" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="O1478" s="8" t="s">
         <v>70</v>
@@ -54679,7 +54669,7 @@
         <v>187</v>
       </c>
       <c r="N1479" s="46" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="O1479" s="8" t="s">
         <v>70</v>
@@ -54754,10 +54744,10 @@
       <c r="Q1481" s="8"/>
       <c r="R1481" s="8"/>
       <c r="S1481" s="8" t="s">
+        <v>1161</v>
+      </c>
+      <c r="T1481" s="64" t="s">
         <v>1162</v>
-      </c>
-      <c r="T1481" s="64" t="s">
-        <v>1163</v>
       </c>
       <c r="U1481" s="8"/>
       <c r="V1481" s="46"/>
@@ -54880,7 +54870,7 @@
         <v>193</v>
       </c>
       <c r="N1485" s="46" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="O1485" s="8" t="s">
         <v>70</v>
@@ -55044,7 +55034,7 @@
         <v>198</v>
       </c>
       <c r="N1490" s="46" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O1490" s="8" t="s">
         <v>70</v>
@@ -55398,7 +55388,7 @@
         <v>209</v>
       </c>
       <c r="N1501" s="46" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="O1501" s="8" t="s">
         <v>70</v>
@@ -55731,10 +55721,10 @@
       <c r="Q1511" s="8"/>
       <c r="R1511" s="8"/>
       <c r="S1511" s="8" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="T1511" s="8" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="U1511" s="8"/>
       <c r="V1511" s="46"/>
@@ -55911,7 +55901,7 @@
     </row>
     <row r="1517" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1517" s="62" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C1517" s="41"/>
       <c r="I1517" s="49" t="s">
@@ -55946,7 +55936,7 @@
     </row>
     <row r="1518" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1518" s="8" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C1518" s="41"/>
       <c r="I1518" s="49" t="s">
@@ -55968,7 +55958,7 @@
         <v>226</v>
       </c>
       <c r="N1518" s="63" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O1518" s="8" t="s">
         <v>73</v>
@@ -55983,7 +55973,7 @@
     </row>
     <row r="1519" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1519" s="8" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C1519" s="41"/>
       <c r="I1519" s="49" t="s">
@@ -56005,7 +55995,7 @@
         <v>227</v>
       </c>
       <c r="N1519" s="60" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="O1519" s="8" t="s">
         <v>70</v>
@@ -56146,7 +56136,7 @@
         <v>231</v>
       </c>
       <c r="N1523" s="46" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="O1523" s="8" t="s">
         <v>73</v>
@@ -56323,7 +56313,7 @@
         <v>236</v>
       </c>
       <c r="N1528" s="46" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="O1528" s="8" t="s">
         <v>70</v>
@@ -56362,7 +56352,7 @@
         <v>237</v>
       </c>
       <c r="N1529" s="46" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="O1529" s="8" t="s">
         <v>70</v>
@@ -56622,10 +56612,10 @@
       <c r="Q1537" s="8"/>
       <c r="R1537" s="8"/>
       <c r="S1537" s="8" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="T1537" s="8" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="U1537" s="8"/>
       <c r="V1537" s="46"/>
@@ -56712,7 +56702,7 @@
         <v>248</v>
       </c>
       <c r="N1540" s="46" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="O1540" s="8" t="s">
         <v>70</v>
@@ -56963,7 +56953,7 @@
         <v>256</v>
       </c>
       <c r="N1548" s="46" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="O1548" s="8" t="s">
         <v>73</v>
@@ -57124,7 +57114,7 @@
         <v>261</v>
       </c>
       <c r="N1553" s="46" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="O1553" s="8" t="s">
         <v>70</v>
@@ -57620,7 +57610,7 @@
         <v>276</v>
       </c>
       <c r="N1568" s="46" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="O1568" s="8" t="s">
         <v>73</v>
@@ -57684,7 +57674,7 @@
         <v>278</v>
       </c>
       <c r="N1570" s="46" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="O1570" s="8" t="s">
         <v>70</v>
@@ -57781,7 +57771,7 @@
         <v>281</v>
       </c>
       <c r="N1573" s="46" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="O1573" s="8" t="s">
         <v>70</v>
@@ -57894,10 +57884,10 @@
       <c r="Q1576" s="8"/>
       <c r="R1576" s="8"/>
       <c r="S1576" s="8" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="T1576" s="8" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="U1576" s="8"/>
       <c r="V1576" s="46"/>
@@ -58073,7 +58063,7 @@
         <v>290</v>
       </c>
       <c r="N1582" s="46" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O1582" s="8" t="s">
         <v>70</v>
@@ -58150,7 +58140,7 @@
         <v>293</v>
       </c>
       <c r="N1585" s="46" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="O1585" s="8" t="s">
         <v>70</v>
@@ -58275,7 +58265,7 @@
         <v>298</v>
       </c>
       <c r="N1590" s="46" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="O1590" s="8" t="s">
         <v>70</v>
@@ -58357,10 +58347,10 @@
         <v>291</v>
       </c>
       <c r="S1593" s="8" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="T1593" s="8" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="V1593" s="46"/>
     </row>
@@ -58420,7 +58410,7 @@
         <v>303</v>
       </c>
       <c r="N1595" s="46" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="O1595" s="8" t="s">
         <v>70</v>
@@ -58498,7 +58488,7 @@
         <v>306</v>
       </c>
       <c r="N1598" s="46" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="O1598" s="8" t="s">
         <v>70</v>
@@ -58527,7 +58517,7 @@
         <v>307</v>
       </c>
       <c r="N1599" s="46" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O1599" s="8" t="s">
         <v>70</v>
@@ -58724,7 +58714,7 @@
         <v>315</v>
       </c>
       <c r="N1607" s="46" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="O1607" s="8" t="s">
         <v>70</v>
@@ -58804,10 +58794,10 @@
         <v>291</v>
       </c>
       <c r="S1610" s="8" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="T1610" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="V1610" s="46"/>
     </row>
@@ -58957,7 +58947,7 @@
         <v>324</v>
       </c>
       <c r="N1616" s="46" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O1616" s="8" t="s">
         <v>70</v>
@@ -59154,7 +59144,7 @@
         <v>332</v>
       </c>
       <c r="N1624" s="46" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="O1624" s="8" t="s">
         <v>73</v>
@@ -59256,7 +59246,7 @@
         <v>336</v>
       </c>
       <c r="N1628" s="46" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="O1628" s="8" t="s">
         <v>70</v>
@@ -59482,7 +59472,7 @@
         <v>345</v>
       </c>
       <c r="N1637" s="46" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="O1637" s="8" t="s">
         <v>70</v>
@@ -59646,13 +59636,13 @@
         <v>351</v>
       </c>
       <c r="N1643" s="46" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P1643" s="8" t="s">
         <v>71</v>
       </c>
       <c r="V1643" s="46" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1644" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59673,7 +59663,7 @@
         <v>1</v>
       </c>
       <c r="N1644" s="46" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O1644" s="8" t="s">
         <v>70</v>
@@ -59849,7 +59839,7 @@
         <v>8</v>
       </c>
       <c r="N1651" s="46" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="O1651" s="8" t="s">
         <v>70</v>
@@ -60295,7 +60285,7 @@
         <v>26</v>
       </c>
       <c r="N1669" s="46" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="O1669" s="8" t="s">
         <v>70</v>
@@ -60423,7 +60413,7 @@
         <v>31</v>
       </c>
       <c r="N1674" s="46" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="O1674" s="8" t="s">
         <v>70</v>
@@ -60476,7 +60466,7 @@
         <v>33</v>
       </c>
       <c r="N1676" s="46" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="O1676" s="8" t="s">
         <v>70</v>
@@ -60705,7 +60695,7 @@
         <v>42</v>
       </c>
       <c r="N1685" s="46" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="O1685" s="8" t="s">
         <v>72</v>
@@ -60835,7 +60825,7 @@
         <v>47</v>
       </c>
       <c r="N1690" s="46" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="O1690" s="8" t="s">
         <v>70</v>
@@ -60864,7 +60854,7 @@
         <v>48</v>
       </c>
       <c r="N1691" s="46" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="O1691" s="8" t="s">
         <v>72</v>
@@ -60893,7 +60883,7 @@
         <v>49</v>
       </c>
       <c r="N1692" s="46" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O1692" s="8" t="s">
         <v>70</v>
@@ -60945,7 +60935,7 @@
         <v>51</v>
       </c>
       <c r="N1694" s="46" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="O1694" s="8" t="s">
         <v>70</v>
@@ -60998,7 +60988,7 @@
         <v>53</v>
       </c>
       <c r="N1696" s="46" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="O1696" s="8" t="s">
         <v>70</v>
@@ -61027,7 +61017,7 @@
         <v>54</v>
       </c>
       <c r="N1697" s="46" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="O1697" s="8" t="s">
         <v>70</v>
@@ -61056,7 +61046,7 @@
         <v>55</v>
       </c>
       <c r="N1698" s="46" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="O1698" s="8" t="s">
         <v>72</v>
@@ -61237,7 +61227,7 @@
         <v>62</v>
       </c>
       <c r="N1705" s="46" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="O1705" s="8" t="s">
         <v>72</v>
@@ -61362,7 +61352,7 @@
         <v>67</v>
       </c>
       <c r="N1710" s="46" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="O1710" s="8" t="s">
         <v>72</v>
@@ -61514,7 +61504,7 @@
         <v>73</v>
       </c>
       <c r="N1716" s="46" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="O1716" s="8" t="s">
         <v>70</v>
@@ -61716,7 +61706,7 @@
         <v>81</v>
       </c>
       <c r="N1724" s="46" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O1724" s="8" t="s">
         <v>70</v>
@@ -62009,7 +61999,7 @@
         <v>93</v>
       </c>
       <c r="N1736" s="47" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="O1736" s="8" t="s">
         <v>70</v>
@@ -62234,7 +62224,7 @@
         <v>102</v>
       </c>
       <c r="N1745" s="46" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O1745" s="8" t="s">
         <v>70</v>
@@ -62311,7 +62301,7 @@
         <v>105</v>
       </c>
       <c r="N1748" s="46" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="O1748" s="8" t="s">
         <v>70</v>
@@ -62340,7 +62330,7 @@
         <v>106</v>
       </c>
       <c r="N1749" s="46" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="O1749" s="8" t="s">
         <v>70</v>
@@ -62393,7 +62383,7 @@
         <v>108</v>
       </c>
       <c r="N1751" s="46" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="O1751" s="8" t="s">
         <v>70</v>
@@ -62446,7 +62436,7 @@
         <v>110</v>
       </c>
       <c r="N1753" s="46" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="O1753" s="8" t="s">
         <v>70</v>
@@ -62667,7 +62657,7 @@
         <v>119</v>
       </c>
       <c r="N1762" s="46" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O1762" s="8" t="s">
         <v>70</v>
@@ -62909,7 +62899,7 @@
         <v>128</v>
       </c>
       <c r="N1771" s="46" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O1771" s="8" t="s">
         <v>70</v>
@@ -62986,7 +62976,7 @@
         <v>131</v>
       </c>
       <c r="N1774" s="46" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O1774" s="8" t="s">
         <v>70</v>
@@ -63135,7 +63125,7 @@
         <v>137</v>
       </c>
       <c r="N1780" s="46" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O1780" s="8" t="s">
         <v>70</v>
@@ -63164,7 +63154,7 @@
         <v>138</v>
       </c>
       <c r="N1781" s="46" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="O1781" s="8" t="s">
         <v>70</v>
@@ -63457,7 +63447,7 @@
         <v>150</v>
       </c>
       <c r="N1793" s="46" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O1793" s="8" t="s">
         <v>70</v>
@@ -63486,7 +63476,7 @@
         <v>151</v>
       </c>
       <c r="N1794" s="46" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="O1794" s="8" t="s">
         <v>70</v>
@@ -63593,7 +63583,7 @@
         <v>71</v>
       </c>
       <c r="V1798" s="46" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1799" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63686,7 +63676,7 @@
         <v>4</v>
       </c>
       <c r="N1802" s="46" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="O1802" s="8" t="s">
         <v>70</v>
@@ -63915,7 +63905,7 @@
         <v>13</v>
       </c>
       <c r="N1811" s="46" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="O1811" s="8" t="s">
         <v>70</v>
@@ -64064,7 +64054,7 @@
         <v>19</v>
       </c>
       <c r="N1817" s="46" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O1817" s="8" t="s">
         <v>73</v>
@@ -64168,7 +64158,7 @@
         <v>23</v>
       </c>
       <c r="N1821" s="46" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="O1821" s="8" t="s">
         <v>70</v>
@@ -64269,7 +64259,7 @@
         <v>27</v>
       </c>
       <c r="N1825" s="46" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="O1825" s="8" t="s">
         <v>70</v>
@@ -64370,7 +64360,7 @@
         <v>31</v>
       </c>
       <c r="N1829" s="46" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="O1829" s="8" t="s">
         <v>73</v>
@@ -64589,7 +64579,7 @@
         <v>40</v>
       </c>
       <c r="N1838" s="46" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="O1838" s="8" t="s">
         <v>70</v>
@@ -65004,7 +64994,7 @@
         <v>57</v>
       </c>
       <c r="N1855" s="46" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="O1855" s="8" t="s">
         <v>70</v>
@@ -65033,7 +65023,7 @@
         <v>58</v>
       </c>
       <c r="N1856" s="46" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="O1856" s="8" t="s">
         <v>70</v>
@@ -65110,7 +65100,7 @@
         <v>61</v>
       </c>
       <c r="N1859" s="46" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O1859" s="8" t="s">
         <v>70</v>
@@ -65337,7 +65327,7 @@
         <v>70</v>
       </c>
       <c r="N1868" s="46" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="O1868" s="8" t="s">
         <v>70</v>
@@ -65723,7 +65713,7 @@
         <v>85</v>
       </c>
       <c r="N1883" s="46" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="O1883" s="8" t="s">
         <v>70</v>
@@ -65752,7 +65742,7 @@
         <v>86</v>
       </c>
       <c r="N1884" s="46" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="O1884" s="8" t="s">
         <v>70</v>
@@ -65781,7 +65771,7 @@
         <v>87</v>
       </c>
       <c r="N1885" s="46" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="O1885" s="8" t="s">
         <v>70</v>
@@ -66062,7 +66052,7 @@
         <v>98</v>
       </c>
       <c r="N1896" s="46" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="O1896" s="8" t="s">
         <v>70</v>
@@ -66121,7 +66111,7 @@
         <v>100</v>
       </c>
       <c r="N1898" s="46" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="O1898" s="8" t="s">
         <v>73</v>
@@ -66321,7 +66311,7 @@
         <v>108</v>
       </c>
       <c r="N1906" s="46" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O1906" s="8" t="s">
         <v>70</v>
@@ -66518,7 +66508,7 @@
         <v>116</v>
       </c>
       <c r="N1914" s="46" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="O1914" s="8" t="s">
         <v>70</v>
@@ -66553,7 +66543,7 @@
         <v>117</v>
       </c>
       <c r="N1915" s="46" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="O1915" s="8" t="s">
         <v>70</v>
@@ -66582,7 +66572,7 @@
         <v>118</v>
       </c>
       <c r="N1916" s="46" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O1916" s="8" t="s">
         <v>70</v>
@@ -66617,7 +66607,7 @@
         <v>119</v>
       </c>
       <c r="N1917" s="46" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O1917" s="8" t="s">
         <v>70</v>
@@ -66757,10 +66747,10 @@
         <v>807</v>
       </c>
       <c r="S1922" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="T1922" s="1" t="s">
         <v>1169</v>
-      </c>
-      <c r="T1922" s="1" t="s">
-        <v>1170</v>
       </c>
       <c r="V1922" s="46"/>
     </row>
@@ -66886,7 +66876,7 @@
         <v>129</v>
       </c>
       <c r="N1927" s="46" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="O1927" s="8" t="s">
         <v>73</v>
@@ -66937,7 +66927,7 @@
         <v>131</v>
       </c>
       <c r="N1929" s="46" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="O1929" s="8" t="s">
         <v>70</v>
@@ -67014,7 +67004,7 @@
         <v>134</v>
       </c>
       <c r="N1932" s="46" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="O1932" s="8" t="s">
         <v>70</v>
@@ -67115,7 +67105,7 @@
         <v>138</v>
       </c>
       <c r="N1936" s="46" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="O1936" s="8" t="s">
         <v>70</v>
@@ -67240,7 +67230,7 @@
         <v>143</v>
       </c>
       <c r="N1941" s="46" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O1941" s="8" t="s">
         <v>73</v>
@@ -67554,13 +67544,13 @@
         <v>155</v>
       </c>
       <c r="N1953" s="46" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="O1953" s="8" t="s">
         <v>73</v>
       </c>
       <c r="S1953" s="8" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="T1953" s="8" t="s">
         <v>100</v>
@@ -67680,7 +67670,7 @@
         <v>159</v>
       </c>
       <c r="N1957" s="46" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="O1957" s="8" t="s">
         <v>73</v>
@@ -68115,7 +68105,7 @@
         <v>177</v>
       </c>
       <c r="N1975" s="46" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="O1975" s="8" t="s">
         <v>70</v>
@@ -68399,7 +68389,7 @@
         <v>188</v>
       </c>
       <c r="N1986" s="46" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="O1986" s="8" t="s">
         <v>73</v>
@@ -68531,7 +68521,7 @@
         <v>193</v>
       </c>
       <c r="N1991" s="46" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="O1991" s="8" t="s">
         <v>70</v>
@@ -68635,7 +68625,7 @@
         <v>197</v>
       </c>
       <c r="N1995" s="46" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="O1995" s="8" t="s">
         <v>70</v>
@@ -68664,7 +68654,7 @@
         <v>198</v>
       </c>
       <c r="N1996" s="46" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="O1996" s="8" t="s">
         <v>70</v>
@@ -68717,7 +68707,7 @@
         <v>200</v>
       </c>
       <c r="N1998" s="46" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="O1998" s="8" t="s">
         <v>70</v>
@@ -68817,7 +68807,7 @@
         <v>204</v>
       </c>
       <c r="N2002" s="46" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="O2002" s="8" t="s">
         <v>70</v>
@@ -68826,7 +68816,7 @@
         <v>71</v>
       </c>
       <c r="V2002" s="46" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="2003" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68943,7 +68933,7 @@
         <v>5</v>
       </c>
       <c r="N2007" s="46" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="O2007" s="8" t="s">
         <v>70</v>
@@ -68996,7 +68986,7 @@
         <v>7</v>
       </c>
       <c r="N2009" s="46" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="O2009" s="8" t="s">
         <v>70</v>
@@ -69049,7 +69039,7 @@
         <v>9</v>
       </c>
       <c r="N2011" s="46" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="O2011" s="8" t="s">
         <v>70</v>
@@ -69102,7 +69092,7 @@
         <v>11</v>
       </c>
       <c r="N2013" s="46" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O2013" s="8" t="s">
         <v>70</v>
@@ -69155,7 +69145,7 @@
         <v>13</v>
       </c>
       <c r="N2015" s="46" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="O2015" s="8" t="s">
         <v>70</v>
@@ -69256,7 +69246,7 @@
         <v>17</v>
       </c>
       <c r="N2019" s="46" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="O2019" s="8" t="s">
         <v>70</v>
@@ -69309,7 +69299,7 @@
         <v>19</v>
       </c>
       <c r="N2021" s="46" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="O2021" s="8" t="s">
         <v>70</v>
@@ -69362,7 +69352,7 @@
         <v>21</v>
       </c>
       <c r="N2023" s="46" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="O2023" s="8" t="s">
         <v>70</v>
@@ -69415,7 +69405,7 @@
         <v>23</v>
       </c>
       <c r="N2025" s="46" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="O2025" s="8" t="s">
         <v>70</v>
@@ -69468,7 +69458,7 @@
         <v>25</v>
       </c>
       <c r="N2027" s="46" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="O2027" s="8" t="s">
         <v>70</v>
@@ -69521,7 +69511,7 @@
         <v>27</v>
       </c>
       <c r="N2029" s="46" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="O2029" s="8" t="s">
         <v>70</v>
@@ -69574,7 +69564,7 @@
         <v>29</v>
       </c>
       <c r="N2031" s="46" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="O2031" s="8" t="s">
         <v>70</v>
@@ -69627,7 +69617,7 @@
         <v>31</v>
       </c>
       <c r="N2033" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="O2033" s="8" t="s">
         <v>70</v>
@@ -69680,7 +69670,7 @@
         <v>33</v>
       </c>
       <c r="N2035" s="46" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="O2035" s="8" t="s">
         <v>70</v>
@@ -69733,7 +69723,7 @@
         <v>35</v>
       </c>
       <c r="N2037" s="46" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="O2037" s="8" t="s">
         <v>70</v>
@@ -69882,7 +69872,7 @@
         <v>41</v>
       </c>
       <c r="N2043" s="46" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="O2043" s="8" t="s">
         <v>70</v>
@@ -70031,7 +70021,7 @@
         <v>47</v>
       </c>
       <c r="N2049" s="46" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="O2049" s="8" t="s">
         <v>70</v>
@@ -70180,7 +70170,7 @@
         <v>53</v>
       </c>
       <c r="N2055" s="46" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="O2055" s="8" t="s">
         <v>70</v>
@@ -70329,7 +70319,7 @@
         <v>59</v>
       </c>
       <c r="N2061" s="46" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="O2061" s="8" t="s">
         <v>70</v>
@@ -70628,7 +70618,7 @@
         <v>71</v>
       </c>
       <c r="V2073" s="46" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="2074" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70697,7 +70687,7 @@
         <v>3</v>
       </c>
       <c r="N2076" s="46" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="O2076" s="8" t="s">
         <v>70</v>
@@ -70750,7 +70740,7 @@
         <v>5</v>
       </c>
       <c r="N2078" s="46" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="O2078" s="8" t="s">
         <v>70</v>
@@ -70803,7 +70793,7 @@
         <v>7</v>
       </c>
       <c r="N2080" s="46" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="O2080" s="8" t="s">
         <v>70</v>
@@ -70856,7 +70846,7 @@
         <v>9</v>
       </c>
       <c r="N2082" s="46" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="O2082" s="8" t="s">
         <v>70</v>
@@ -70909,7 +70899,7 @@
         <v>11</v>
       </c>
       <c r="N2084" s="46" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="O2084" s="8" t="s">
         <v>70</v>
@@ -70962,7 +70952,7 @@
         <v>13</v>
       </c>
       <c r="N2086" s="46" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="O2086" s="8" t="s">
         <v>70</v>
@@ -71015,7 +71005,7 @@
         <v>15</v>
       </c>
       <c r="N2088" s="46" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="O2088" s="8" t="s">
         <v>70</v>
@@ -71068,7 +71058,7 @@
         <v>17</v>
       </c>
       <c r="N2090" s="46" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="O2090" s="8" t="s">
         <v>70</v>
@@ -71217,7 +71207,7 @@
         <v>23</v>
       </c>
       <c r="N2096" s="46" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="O2096" s="8" t="s">
         <v>70</v>
@@ -71366,7 +71356,7 @@
         <v>29</v>
       </c>
       <c r="N2102" s="46" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="O2102" s="8" t="s">
         <v>70</v>
@@ -71515,7 +71505,7 @@
         <v>35</v>
       </c>
       <c r="N2108" s="46" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="O2108" s="8" t="s">
         <v>70</v>
@@ -71664,7 +71654,7 @@
         <v>41</v>
       </c>
       <c r="N2114" s="46" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="O2114" s="8" t="s">
         <v>70</v>
@@ -71891,7 +71881,7 @@
         <v>71</v>
       </c>
       <c r="V2123" s="46" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="2124" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71960,7 +71950,7 @@
         <v>3</v>
       </c>
       <c r="N2126" s="46" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="O2126" s="8" t="s">
         <v>70</v>
@@ -72013,7 +72003,7 @@
         <v>5</v>
       </c>
       <c r="N2128" s="46" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O2128" s="8" t="s">
         <v>70</v>
@@ -72114,7 +72104,7 @@
         <v>9</v>
       </c>
       <c r="N2132" s="46" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="O2132" s="8" t="s">
         <v>70</v>
@@ -72167,7 +72157,7 @@
         <v>11</v>
       </c>
       <c r="N2134" s="46" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="O2134" s="8" t="s">
         <v>70</v>
@@ -72220,7 +72210,7 @@
         <v>13</v>
       </c>
       <c r="N2136" s="46" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="O2136" s="8" t="s">
         <v>70</v>
@@ -72273,7 +72263,7 @@
         <v>15</v>
       </c>
       <c r="N2138" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="O2138" s="8" t="s">
         <v>70</v>
@@ -72326,7 +72316,7 @@
         <v>17</v>
       </c>
       <c r="N2140" s="46" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="O2140" s="8" t="s">
         <v>70</v>
@@ -72427,7 +72417,7 @@
         <v>21</v>
       </c>
       <c r="N2144" s="46" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="O2144" s="8" t="s">
         <v>70</v>
@@ -72558,7 +72548,7 @@
         <v>71</v>
       </c>
       <c r="V2149" s="46" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="2150" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72579,7 +72569,7 @@
         <v>1</v>
       </c>
       <c r="N2150" s="46" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="O2150" s="8" t="s">
         <v>70</v>
@@ -72632,7 +72622,7 @@
         <v>3</v>
       </c>
       <c r="N2152" s="46" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="O2152" s="8" t="s">
         <v>70</v>
@@ -72685,7 +72675,7 @@
         <v>5</v>
       </c>
       <c r="N2154" s="46" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="O2154" s="8" t="s">
         <v>70</v>
@@ -72738,7 +72728,7 @@
         <v>7</v>
       </c>
       <c r="N2156" s="46" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="O2156" s="8" t="s">
         <v>70</v>
@@ -72791,7 +72781,7 @@
         <v>9</v>
       </c>
       <c r="N2158" s="46" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="O2158" s="8" t="s">
         <v>70</v>
@@ -72844,7 +72834,7 @@
         <v>11</v>
       </c>
       <c r="N2160" s="46" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="O2160" s="8" t="s">
         <v>70</v>
@@ -72897,7 +72887,7 @@
         <v>13</v>
       </c>
       <c r="N2162" s="46" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="O2162" s="8" t="s">
         <v>70</v>
@@ -72950,7 +72940,7 @@
         <v>15</v>
       </c>
       <c r="N2164" s="46" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="O2164" s="8" t="s">
         <v>70</v>
@@ -73099,7 +73089,7 @@
         <v>21</v>
       </c>
       <c r="N2170" s="46" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="O2170" s="8" t="s">
         <v>70</v>
@@ -73248,7 +73238,7 @@
         <v>27</v>
       </c>
       <c r="N2176" s="46" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="O2176" s="8" t="s">
         <v>70</v>
@@ -73397,7 +73387,7 @@
         <v>33</v>
       </c>
       <c r="N2182" s="46" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="O2182" s="8" t="s">
         <v>70</v>
@@ -73546,7 +73536,7 @@
         <v>39</v>
       </c>
       <c r="N2188" s="46" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="O2188" s="8" t="s">
         <v>70</v>
@@ -73773,7 +73763,7 @@
         <v>71</v>
       </c>
       <c r="V2197" s="46" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="2198" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73794,7 +73784,7 @@
         <v>1</v>
       </c>
       <c r="N2198" s="46" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="O2198" s="8" t="s">
         <v>70</v>
@@ -73895,7 +73885,7 @@
         <v>5</v>
       </c>
       <c r="N2202" s="46" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="O2202" s="8" t="s">
         <v>70</v>
@@ -73948,7 +73938,7 @@
         <v>7</v>
       </c>
       <c r="N2204" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="O2204" s="8" t="s">
         <v>70</v>
@@ -74049,7 +74039,7 @@
         <v>11</v>
       </c>
       <c r="N2208" s="46" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="O2208" s="8" t="s">
         <v>70</v>
@@ -74180,7 +74170,7 @@
         <v>71</v>
       </c>
       <c r="V2213" s="46" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="2214" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74201,7 +74191,7 @@
         <v>1</v>
       </c>
       <c r="N2214" s="46" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="O2214" s="8" t="s">
         <v>70</v>
@@ -74254,7 +74244,7 @@
         <v>3</v>
       </c>
       <c r="N2216" s="46" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="O2216" s="8" t="s">
         <v>70</v>
@@ -74307,7 +74297,7 @@
         <v>5</v>
       </c>
       <c r="N2218" s="46" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="O2218" s="8" t="s">
         <v>70</v>
@@ -74408,7 +74398,7 @@
         <v>9</v>
       </c>
       <c r="N2222" s="46" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="O2222" s="8" t="s">
         <v>70</v>
@@ -74539,7 +74529,7 @@
         <v>71</v>
       </c>
       <c r="V2227" s="46" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="2228" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74560,7 +74550,7 @@
         <v>1</v>
       </c>
       <c r="N2228" s="46" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="O2228" s="8" t="s">
         <v>70</v>
@@ -75075,7 +75065,7 @@
         <v>71</v>
       </c>
       <c r="V2249" s="46" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="2250" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75366,7 +75356,7 @@
         <v>71</v>
       </c>
       <c r="V2261" s="46" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="2262" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75555,7 +75545,7 @@
         <v>8</v>
       </c>
       <c r="N2269" s="46" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="O2269" s="8" t="s">
         <v>70</v>
@@ -75632,7 +75622,7 @@
         <v>11</v>
       </c>
       <c r="N2272" s="46" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="O2272" s="8" t="s">
         <v>70</v>
@@ -75709,7 +75699,7 @@
         <v>14</v>
       </c>
       <c r="N2275" s="46" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="O2275" s="8" t="s">
         <v>70</v>
@@ -75786,7 +75776,7 @@
         <v>17</v>
       </c>
       <c r="N2278" s="46" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O2278" s="8" t="s">
         <v>70</v>
@@ -75863,7 +75853,7 @@
         <v>20</v>
       </c>
       <c r="N2281" s="46" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="O2281" s="8" t="s">
         <v>70</v>
@@ -76012,7 +76002,7 @@
         <v>26</v>
       </c>
       <c r="N2287" s="46" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="O2287" s="8" t="s">
         <v>70</v>
@@ -76167,7 +76157,7 @@
         <v>71</v>
       </c>
       <c r="V2293" s="46" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="2294" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76332,7 +76322,7 @@
         <v>7</v>
       </c>
       <c r="N2300" s="46" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="O2300" s="8" t="s">
         <v>70</v>
@@ -76385,7 +76375,7 @@
         <v>9</v>
       </c>
       <c r="N2302" s="46" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="O2302" s="8" t="s">
         <v>70</v>
@@ -76486,7 +76476,7 @@
         <v>13</v>
       </c>
       <c r="N2306" s="46" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="O2306" s="8" t="s">
         <v>70</v>
@@ -76683,7 +76673,7 @@
         <v>21</v>
       </c>
       <c r="N2314" s="46" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="O2314" s="8" t="s">
         <v>70</v>
@@ -77127,7 +77117,7 @@
         <v>71</v>
       </c>
       <c r="V2331" s="46" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
   </sheetData>

--- a/TS Jatai Working/Padam Input Templates/TS 7.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 7.2 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57513095-FCE7-42B5-9291-1154920ABF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03061DD9-7769-4734-A30C-0A12FF50F3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6069" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6068" uniqueCount="1177">
   <si>
     <t>Passage</t>
   </si>
@@ -3549,9 +3549,6 @@
     <t>anu cChandaH</t>
   </si>
   <si>
-    <t>prA~g. yAnti (swara bakthi??)</t>
-  </si>
-  <si>
     <t>jyoti#HpakShA</t>
   </si>
   <si>
@@ -3559,6 +3556,9 @@
   </si>
   <si>
     <t>ASva#tthIq ityASva#tthI</t>
+  </si>
+  <si>
+    <t>var.Sha$t</t>
   </si>
 </sst>
 </file>
@@ -4256,10 +4256,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2318" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N657" sqref="N657"/>
+      <selection pane="bottomLeft" activeCell="N1381" sqref="N1381:N1382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6489,7 +6489,7 @@
         <v>43</v>
       </c>
       <c r="N44" s="47" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="O44" s="8" t="s">
         <v>70</v>
@@ -9603,7 +9603,7 @@
       <c r="T128" s="8"/>
       <c r="U128" s="8"/>
       <c r="V128" s="47" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="129" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10275,9 +10275,7 @@
       <c r="V147" s="46"/>
     </row>
     <row r="148" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A148" s="57" t="s">
-        <v>1173</v>
-      </c>
+      <c r="A148" s="57"/>
       <c r="B148" s="57"/>
       <c r="C148" s="57"/>
       <c r="D148" s="24"/>
@@ -47833,7 +47831,7 @@
         <v>255</v>
       </c>
       <c r="N1272" s="47" t="s">
-        <v>626</v>
+        <v>1176</v>
       </c>
       <c r="O1272" s="7"/>
       <c r="P1272" s="8"/>
@@ -61999,7 +61997,7 @@
         <v>93</v>
       </c>
       <c r="N1736" s="47" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="O1736" s="8" t="s">
         <v>70</v>

--- a/TS Jatai Working/Padam Input Templates/TS 7.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 7.2 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03061DD9-7769-4734-A30C-0A12FF50F3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761CCD15-3064-4764-8635-8462AAAE3DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3558,7 +3558,7 @@
     <t>ASva#tthIq ityASva#tthI</t>
   </si>
   <si>
-    <t>var.Sha$t</t>
+    <t>var.She$t</t>
   </si>
 </sst>
 </file>
@@ -4257,9 +4257,9 @@
   <dimension ref="A1:V2331"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2318" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1268" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N1381" sqref="N1381:N1382"/>
+      <selection pane="bottomLeft" activeCell="N1272" sqref="N1272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
